--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="298">
   <si>
     <t>_id</t>
   </si>
@@ -108,7 +108,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>14,16,15</t>
@@ -117,10 +120,10 @@
     <t>5,5,5</t>
   </si>
   <si>
-    <t>attr,def,hp</t>
-  </si>
-  <si>
-    <t>3,4</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>16,15</t>
@@ -129,22 +132,850 @@
     <t>5,5</t>
   </si>
   <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>7,8</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>14,15</t>
   </si>
   <si>
-    <t>9,10</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6,6,6</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>7,7,7</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>9,9,9</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>11,11,11</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>11,11</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>12,12,12</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>12,12</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>13,13,13</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>13,13</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>14,14,14</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>14,14</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>15,15,15</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>15,15</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>16,16,16</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>16,16</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>17,17,17</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>17,17</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>18,18,18</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>18,18</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>19,19,19</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>19,19</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>20,20,20</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>20,20</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>21,21,21</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>21,21</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>22,22,22</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>22,22</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>23,23,23</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>23,23</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>24,24,24</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>24,24</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>25,25,25</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>25,25</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>26,26,26</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>26,26</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>27,27,27</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>27,27</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>28,28,28</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>28,28</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>29,29,29</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>29,29</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>30,30,30</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>30,30</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>31,31,31</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>31,31</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>32,32,32</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>32,32</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>33,33,33</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>33,33</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>34,34,34</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>34,34</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>35,35,35</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>35,35</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>36,36,36</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>36,36</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>37,37,37</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>37,37</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>38,38,38</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>38,38</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>39,39,39</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>39,39</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>40,40,40</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>40,40</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>41,41,41</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>41,41</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>42,42,42</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>42,42</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>43,43,43</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>43,43</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>44,44,44</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>44,44</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -173,34 +1004,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,14 +1017,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,6 +1056,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,7 +1121,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,55 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,31 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +1234,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,7 +1258,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +1306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +1342,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,21 +1365,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,6 +1397,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,148 +1468,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -788,56 +1619,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1108,20 +1938,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I10"/>
+  <dimension ref="C3:I205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" style="1" width="11.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="18.25" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.5" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
@@ -1174,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -1187,92 +2017,3404 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="6" ht="24.0" customHeight="true">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" ht="24.0" customHeight="true">
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" ht="24.0" customHeight="true">
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" ht="24.0" customHeight="true">
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" ht="24.0" customHeight="true">
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" ht="24.0" customHeight="true">
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" ht="24.0" customHeight="true">
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" ht="24.0" customHeight="true">
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" ht="24.0" customHeight="true">
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" ht="24.0" customHeight="true">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" ht="24.0" customHeight="true">
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" ht="24.0" customHeight="true">
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" ht="24.0" customHeight="true">
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" ht="24.0" customHeight="true">
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" ht="24.0" customHeight="true">
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" ht="24.0" customHeight="true">
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" ht="24.0" customHeight="true">
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" ht="24.0" customHeight="true">
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" ht="24.0" customHeight="true">
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" ht="24.0" customHeight="true">
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" ht="24.0" customHeight="true">
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" ht="24.0" customHeight="true">
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" ht="24.0" customHeight="true">
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" ht="24.0" customHeight="true">
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" ht="24.0" customHeight="true">
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" ht="24.0" customHeight="true">
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" ht="24.0" customHeight="true">
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" ht="24.0" customHeight="true">
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" ht="24.0" customHeight="true">
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" ht="24.0" customHeight="true">
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" ht="24.0" customHeight="true">
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" ht="24.0" customHeight="true">
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" ht="24.0" customHeight="true">
+      <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" ht="24.0" customHeight="true">
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" ht="24.0" customHeight="true">
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" ht="24.0" customHeight="true">
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" ht="24.0" customHeight="true">
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" ht="24.0" customHeight="true">
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" ht="24.0" customHeight="true">
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" ht="24.0" customHeight="true">
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" ht="24.0" customHeight="true">
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" ht="24.0" customHeight="true">
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" ht="24.0" customHeight="true">
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" ht="24.0" customHeight="true">
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" ht="24.0" customHeight="true">
+      <c r="C84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" ht="24.0" customHeight="true">
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" ht="24.0" customHeight="true">
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" ht="24.0" customHeight="true">
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" ht="24.0" customHeight="true">
+      <c r="C88" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" ht="24.0" customHeight="true">
+      <c r="C89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" ht="24.0" customHeight="true">
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" ht="24.0" customHeight="true">
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" ht="24.0" customHeight="true">
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" ht="24.0" customHeight="true">
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" ht="24.0" customHeight="true">
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" ht="24.0" customHeight="true">
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" ht="24.0" customHeight="true">
+      <c r="C96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" ht="24.0" customHeight="true">
+      <c r="C97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" ht="24.0" customHeight="true">
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" ht="24.0" customHeight="true">
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" ht="24.0" customHeight="true">
+      <c r="C100" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" ht="24.0" customHeight="true">
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" ht="24.0" customHeight="true">
+      <c r="C102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" ht="24.0" customHeight="true">
+      <c r="C103" t="s">
+        <v>155</v>
+      </c>
+      <c r="D103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" ht="24.0" customHeight="true">
+      <c r="C104" t="s">
+        <v>156</v>
+      </c>
+      <c r="D104" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" ht="24.0" customHeight="true">
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" ht="24.0" customHeight="true">
+      <c r="C106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" ht="24.0" customHeight="true">
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" ht="24.0" customHeight="true">
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" ht="24.0" customHeight="true">
+      <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" ht="24.0" customHeight="true">
+      <c r="C110" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" ht="24.0" customHeight="true">
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" ht="24.0" customHeight="true">
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" ht="24.0" customHeight="true">
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" ht="24.0" customHeight="true">
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" ht="24.0" customHeight="true">
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" ht="24.0" customHeight="true">
+      <c r="C116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D116" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" ht="24.0" customHeight="true">
+      <c r="C117" t="s">
+        <v>174</v>
+      </c>
+      <c r="D117" t="s">
+        <v>172</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" ht="24.0" customHeight="true">
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" ht="24.0" customHeight="true">
+      <c r="C119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" t="s">
+        <v>172</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" ht="24.0" customHeight="true">
+      <c r="C120" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120" t="s">
+        <v>172</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" ht="24.0" customHeight="true">
+      <c r="C121" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" ht="24.0" customHeight="true">
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" t="s">
+        <v>179</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" ht="24.0" customHeight="true">
+      <c r="C123" t="s">
+        <v>183</v>
+      </c>
+      <c r="D123" t="s">
+        <v>179</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" ht="24.0" customHeight="true">
+      <c r="C124" t="s">
+        <v>184</v>
+      </c>
+      <c r="D124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" ht="24.0" customHeight="true">
+      <c r="C125" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" ht="24.0" customHeight="true">
+      <c r="C126" t="s">
+        <v>186</v>
+      </c>
+      <c r="D126" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" ht="24.0" customHeight="true">
+      <c r="C127" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" ht="24.0" customHeight="true">
+      <c r="C128" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" ht="24.0" customHeight="true">
+      <c r="C129" t="s">
+        <v>191</v>
+      </c>
+      <c r="D129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" ht="24.0" customHeight="true">
+      <c r="C130" t="s">
+        <v>192</v>
+      </c>
+      <c r="D130" t="s">
+        <v>186</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" ht="24.0" customHeight="true">
+      <c r="C131" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" ht="24.0" customHeight="true">
+      <c r="C132" t="s">
+        <v>195</v>
+      </c>
+      <c r="D132" t="s">
+        <v>193</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" ht="24.0" customHeight="true">
+      <c r="C133" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" ht="24.0" customHeight="true">
+      <c r="C134" t="s">
+        <v>198</v>
+      </c>
+      <c r="D134" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" ht="24.0" customHeight="true">
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" ht="24.0" customHeight="true">
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" ht="24.0" customHeight="true">
+      <c r="C137" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" ht="24.0" customHeight="true">
+      <c r="C138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" ht="24.0" customHeight="true">
+      <c r="C139" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" t="s">
+        <v>200</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" ht="24.0" customHeight="true">
+      <c r="C140" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" t="s">
+        <v>200</v>
+      </c>
+      <c r="E140" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" ht="24.0" customHeight="true">
+      <c r="C141" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" t="s">
+        <v>207</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" ht="24.0" customHeight="true">
+      <c r="C142" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" ht="24.0" customHeight="true">
+      <c r="C143" t="s">
+        <v>211</v>
+      </c>
+      <c r="D143" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" ht="24.0" customHeight="true">
+      <c r="C144" t="s">
+        <v>212</v>
+      </c>
+      <c r="D144" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" ht="24.0" customHeight="true">
+      <c r="C145" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" ht="24.0" customHeight="true">
+      <c r="C146" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" t="s">
+        <v>214</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" ht="24.0" customHeight="true">
+      <c r="C147" t="s">
+        <v>216</v>
+      </c>
+      <c r="D147" t="s">
+        <v>214</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" ht="24.0" customHeight="true">
+      <c r="C148" t="s">
+        <v>218</v>
+      </c>
+      <c r="D148" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="149" ht="24.0" customHeight="true">
+      <c r="C149" t="s">
+        <v>219</v>
+      </c>
+      <c r="D149" t="s">
+        <v>214</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" ht="24.0" customHeight="true">
+      <c r="C150" t="s">
+        <v>220</v>
+      </c>
+      <c r="D150" t="s">
+        <v>214</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" ht="24.0" customHeight="true">
+      <c r="C151" t="s">
+        <v>221</v>
+      </c>
+      <c r="D151" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" ht="24.0" customHeight="true">
+      <c r="C152" t="s">
+        <v>223</v>
+      </c>
+      <c r="D152" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" ht="24.0" customHeight="true">
+      <c r="C153" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" t="s">
+        <v>221</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" ht="24.0" customHeight="true">
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" ht="24.0" customHeight="true">
+      <c r="C155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" ht="24.0" customHeight="true">
+      <c r="C156" t="s">
+        <v>228</v>
+      </c>
+      <c r="D156" t="s">
+        <v>228</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" ht="24.0" customHeight="true">
+      <c r="C157" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" t="s">
+        <v>228</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" ht="24.0" customHeight="true">
+      <c r="C158" t="s">
+        <v>232</v>
+      </c>
+      <c r="D158" t="s">
+        <v>228</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" ht="24.0" customHeight="true">
+      <c r="C159" t="s">
+        <v>233</v>
+      </c>
+      <c r="D159" t="s">
+        <v>228</v>
+      </c>
+      <c r="E159" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" ht="24.0" customHeight="true">
+      <c r="C160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" t="s">
+        <v>228</v>
+      </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" ht="24.0" customHeight="true">
+      <c r="C161" t="s">
+        <v>235</v>
+      </c>
+      <c r="D161" t="s">
+        <v>235</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" ht="24.0" customHeight="true">
+      <c r="C162" t="s">
+        <v>237</v>
+      </c>
+      <c r="D162" t="s">
+        <v>235</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" ht="24.0" customHeight="true">
+      <c r="C163" t="s">
+        <v>239</v>
+      </c>
+      <c r="D163" t="s">
+        <v>235</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" ht="24.0" customHeight="true">
+      <c r="C164" t="s">
+        <v>240</v>
+      </c>
+      <c r="D164" t="s">
+        <v>235</v>
+      </c>
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" ht="24.0" customHeight="true">
+      <c r="C165" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" t="s">
+        <v>235</v>
+      </c>
+      <c r="E165" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" ht="24.0" customHeight="true">
+      <c r="C166" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166" t="s">
+        <v>242</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" ht="24.0" customHeight="true">
+      <c r="C167" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" t="s">
+        <v>242</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" ht="24.0" customHeight="true">
+      <c r="C168" t="s">
+        <v>246</v>
+      </c>
+      <c r="D168" t="s">
+        <v>242</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="169" ht="24.0" customHeight="true">
+      <c r="C169" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" t="s">
+        <v>242</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="170" ht="24.0" customHeight="true">
+      <c r="C170" t="s">
+        <v>248</v>
+      </c>
+      <c r="D170" t="s">
+        <v>242</v>
+      </c>
+      <c r="E170" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" ht="24.0" customHeight="true">
+      <c r="C171" t="s">
+        <v>249</v>
+      </c>
+      <c r="D171" t="s">
+        <v>249</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" ht="24.0" customHeight="true">
+      <c r="C172" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" t="s">
+        <v>249</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" ht="24.0" customHeight="true">
+      <c r="C173" t="s">
+        <v>253</v>
+      </c>
+      <c r="D173" t="s">
+        <v>249</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" ht="24.0" customHeight="true">
+      <c r="C174" t="s">
+        <v>254</v>
+      </c>
+      <c r="D174" t="s">
+        <v>249</v>
+      </c>
+      <c r="E174" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" ht="24.0" customHeight="true">
+      <c r="C175" t="s">
+        <v>255</v>
+      </c>
+      <c r="D175" t="s">
+        <v>249</v>
+      </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" ht="24.0" customHeight="true">
+      <c r="C176" t="s">
+        <v>256</v>
+      </c>
+      <c r="D176" t="s">
+        <v>256</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" ht="24.0" customHeight="true">
+      <c r="C177" t="s">
+        <v>258</v>
+      </c>
+      <c r="D177" t="s">
+        <v>256</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" ht="24.0" customHeight="true">
+      <c r="C178" t="s">
+        <v>260</v>
+      </c>
+      <c r="D178" t="s">
+        <v>256</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" ht="24.0" customHeight="true">
+      <c r="C179" t="s">
+        <v>261</v>
+      </c>
+      <c r="D179" t="s">
+        <v>256</v>
+      </c>
+      <c r="E179" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" ht="24.0" customHeight="true">
+      <c r="C180" t="s">
+        <v>262</v>
+      </c>
+      <c r="D180" t="s">
+        <v>256</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" ht="24.0" customHeight="true">
+      <c r="C181" t="s">
+        <v>263</v>
+      </c>
+      <c r="D181" t="s">
+        <v>263</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" ht="24.0" customHeight="true">
+      <c r="C182" t="s">
+        <v>265</v>
+      </c>
+      <c r="D182" t="s">
+        <v>263</v>
+      </c>
+      <c r="E182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" ht="24.0" customHeight="true">
+      <c r="C183" t="s">
+        <v>267</v>
+      </c>
+      <c r="D183" t="s">
+        <v>263</v>
+      </c>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" ht="24.0" customHeight="true">
+      <c r="C184" t="s">
+        <v>268</v>
+      </c>
+      <c r="D184" t="s">
+        <v>263</v>
+      </c>
+      <c r="E184" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" ht="24.0" customHeight="true">
+      <c r="C185" t="s">
+        <v>269</v>
+      </c>
+      <c r="D185" t="s">
+        <v>263</v>
+      </c>
+      <c r="E185" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" ht="24.0" customHeight="true">
+      <c r="C186" t="s">
+        <v>270</v>
+      </c>
+      <c r="D186" t="s">
+        <v>270</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" ht="24.0" customHeight="true">
+      <c r="C187" t="s">
+        <v>272</v>
+      </c>
+      <c r="D187" t="s">
+        <v>270</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="188" ht="24.0" customHeight="true">
+      <c r="C188" t="s">
+        <v>274</v>
+      </c>
+      <c r="D188" t="s">
+        <v>270</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="189" ht="24.0" customHeight="true">
+      <c r="C189" t="s">
+        <v>275</v>
+      </c>
+      <c r="D189" t="s">
+        <v>270</v>
+      </c>
+      <c r="E189" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" ht="24.0" customHeight="true">
+      <c r="C190" t="s">
+        <v>276</v>
+      </c>
+      <c r="D190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" ht="24.0" customHeight="true">
+      <c r="C191" t="s">
+        <v>277</v>
+      </c>
+      <c r="D191" t="s">
+        <v>277</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" ht="24.0" customHeight="true">
+      <c r="C192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D192" t="s">
+        <v>277</v>
+      </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="193" ht="24.0" customHeight="true">
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+      <c r="D193" t="s">
+        <v>277</v>
+      </c>
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="194" ht="24.0" customHeight="true">
+      <c r="C194" t="s">
+        <v>282</v>
+      </c>
+      <c r="D194" t="s">
+        <v>277</v>
+      </c>
+      <c r="E194" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="195" ht="24.0" customHeight="true">
+      <c r="C195" t="s">
+        <v>283</v>
+      </c>
+      <c r="D195" t="s">
+        <v>277</v>
+      </c>
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="196" ht="24.0" customHeight="true">
+      <c r="C196" t="s">
+        <v>284</v>
+      </c>
+      <c r="D196" t="s">
+        <v>284</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" ht="24.0" customHeight="true">
+      <c r="C197" t="s">
+        <v>286</v>
+      </c>
+      <c r="D197" t="s">
+        <v>284</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="198" ht="24.0" customHeight="true">
+      <c r="C198" t="s">
+        <v>288</v>
+      </c>
+      <c r="D198" t="s">
+        <v>284</v>
+      </c>
+      <c r="E198" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" ht="24.0" customHeight="true">
+      <c r="C199" t="s">
+        <v>289</v>
+      </c>
+      <c r="D199" t="s">
+        <v>284</v>
+      </c>
+      <c r="E199" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="200" ht="24.0" customHeight="true">
+      <c r="C200" t="s">
+        <v>290</v>
+      </c>
+      <c r="D200" t="s">
+        <v>284</v>
+      </c>
+      <c r="E200" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="201" ht="24.0" customHeight="true">
+      <c r="C201" t="s">
+        <v>291</v>
+      </c>
+      <c r="D201" t="s">
+        <v>291</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="202" ht="24.0" customHeight="true">
+      <c r="C202" t="s">
+        <v>293</v>
+      </c>
+      <c r="D202" t="s">
+        <v>291</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="203" ht="24.0" customHeight="true">
+      <c r="C203" t="s">
+        <v>295</v>
+      </c>
+      <c r="D203" t="s">
+        <v>291</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="204" ht="24.0" customHeight="true">
+      <c r="C204" t="s">
+        <v>296</v>
+      </c>
+      <c r="D204" t="s">
+        <v>291</v>
+      </c>
+      <c r="E204" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" ht="24.0" customHeight="true">
+      <c r="C205" t="s">
+        <v>297</v>
+      </c>
+      <c r="D205" t="s">
+        <v>291</v>
+      </c>
+      <c r="E205" t="s">
+        <v>24</v>
+      </c>
+      <c r="F205" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="333">
   <si>
     <t>_id</t>
   </si>
@@ -970,6 +970,111 @@
   </si>
   <si>
     <t>404</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>45,45,45</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>45,45</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>46,46,46</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>46,46</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>47,47,47</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>47,47</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>48,48,48</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>48,48</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>49,49,49</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>49,49</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>454</t>
   </si>
 </sst>
 </file>
@@ -1938,20 +2043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I205"/>
+  <dimension ref="A3:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A206" sqref="$A206:$XFD230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" style="1" width="11.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="13.75" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="18.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="23.5" collapsed="false"/>
-    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
@@ -2017,7 +2122,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:7">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="24.0" customHeight="true">
+    <row r="7" ht="24" customHeight="1" spans="3:7">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="24.0" customHeight="true">
+    <row r="8" ht="24" customHeight="1" spans="3:7">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +2173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="24.0" customHeight="true">
+    <row r="9" ht="24" customHeight="1" spans="3:7">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -2085,7 +2190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="24.0" customHeight="true">
+    <row r="10" ht="24" customHeight="1" spans="3:7">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -2102,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="24.0" customHeight="true">
+    <row r="11" ht="24" customHeight="1" spans="3:7">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -2119,7 +2224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="24.0" customHeight="true">
+    <row r="12" ht="24" customHeight="1" spans="3:7">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -2136,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="24.0" customHeight="true">
+    <row r="13" ht="24" customHeight="1" spans="3:7">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -2153,7 +2258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="24.0" customHeight="true">
+    <row r="14" ht="24" customHeight="1" spans="3:7">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -2170,7 +2275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="24.0" customHeight="true">
+    <row r="15" ht="24" customHeight="1" spans="3:7">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -2187,7 +2292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="24.0" customHeight="true">
+    <row r="16" ht="24" customHeight="1" spans="3:7">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -2204,7 +2309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="24.0" customHeight="true">
+    <row r="17" ht="24" customHeight="1" spans="3:7">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -2221,7 +2326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="24.0" customHeight="true">
+    <row r="18" ht="24" customHeight="1" spans="3:7">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -2238,7 +2343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="24.0" customHeight="true">
+    <row r="19" ht="24" customHeight="1" spans="3:7">
       <c r="C19" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="24.0" customHeight="true">
+    <row r="20" ht="24" customHeight="1" spans="3:7">
       <c r="C20" t="s">
         <v>38</v>
       </c>
@@ -2272,7 +2377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" ht="24.0" customHeight="true">
+    <row r="21" ht="24" customHeight="1" spans="3:7">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="24.0" customHeight="true">
+    <row r="22" ht="24" customHeight="1" spans="3:7">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -2306,7 +2411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" ht="24.0" customHeight="true">
+    <row r="23" ht="24" customHeight="1" spans="3:7">
       <c r="C23" t="s">
         <v>43</v>
       </c>
@@ -2323,7 +2428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" ht="24.0" customHeight="true">
+    <row r="24" ht="24" customHeight="1" spans="3:7">
       <c r="C24" t="s">
         <v>44</v>
       </c>
@@ -2340,7 +2445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" ht="24.0" customHeight="true">
+    <row r="25" ht="24" customHeight="1" spans="3:7">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -2357,7 +2462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" ht="24.0" customHeight="true">
+    <row r="26" ht="24" customHeight="1" spans="3:7">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" ht="24.0" customHeight="true">
+    <row r="27" ht="24" customHeight="1" spans="3:7">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -2391,7 +2496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" ht="24.0" customHeight="true">
+    <row r="28" ht="24" customHeight="1" spans="3:7">
       <c r="C28" t="s">
         <v>50</v>
       </c>
@@ -2408,7 +2513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" ht="24.0" customHeight="true">
+    <row r="29" ht="24" customHeight="1" spans="3:7">
       <c r="C29" t="s">
         <v>51</v>
       </c>
@@ -2425,7 +2530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" ht="24.0" customHeight="true">
+    <row r="30" ht="24" customHeight="1" spans="3:7">
       <c r="C30" t="s">
         <v>52</v>
       </c>
@@ -2442,7 +2547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" ht="24.0" customHeight="true">
+    <row r="31" ht="24" customHeight="1" spans="3:7">
       <c r="C31" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" ht="24.0" customHeight="true">
+    <row r="32" ht="24" customHeight="1" spans="3:7">
       <c r="C32" t="s">
         <v>55</v>
       </c>
@@ -2476,7 +2581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" ht="24.0" customHeight="true">
+    <row r="33" ht="24" customHeight="1" spans="3:7">
       <c r="C33" t="s">
         <v>57</v>
       </c>
@@ -2493,7 +2598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" ht="24.0" customHeight="true">
+    <row r="34" ht="24" customHeight="1" spans="3:7">
       <c r="C34" t="s">
         <v>58</v>
       </c>
@@ -2510,7 +2615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" ht="24.0" customHeight="true">
+    <row r="35" ht="24" customHeight="1" spans="3:7">
       <c r="C35" t="s">
         <v>59</v>
       </c>
@@ -2527,7 +2632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" ht="24.0" customHeight="true">
+    <row r="36" ht="24" customHeight="1" spans="3:7">
       <c r="C36" t="s">
         <v>60</v>
       </c>
@@ -2544,7 +2649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" ht="24.0" customHeight="true">
+    <row r="37" ht="24" customHeight="1" spans="3:7">
       <c r="C37" t="s">
         <v>62</v>
       </c>
@@ -2561,7 +2666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" ht="24.0" customHeight="true">
+    <row r="38" ht="24" customHeight="1" spans="3:7">
       <c r="C38" t="s">
         <v>64</v>
       </c>
@@ -2578,7 +2683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" ht="24.0" customHeight="true">
+    <row r="39" ht="24" customHeight="1" spans="3:7">
       <c r="C39" t="s">
         <v>65</v>
       </c>
@@ -2595,7 +2700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" ht="24.0" customHeight="true">
+    <row r="40" ht="24" customHeight="1" spans="3:7">
       <c r="C40" t="s">
         <v>66</v>
       </c>
@@ -2612,7 +2717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" ht="24.0" customHeight="true">
+    <row r="41" ht="24" customHeight="1" spans="3:7">
       <c r="C41" t="s">
         <v>67</v>
       </c>
@@ -2629,7 +2734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" ht="24.0" customHeight="true">
+    <row r="42" ht="24" customHeight="1" spans="3:7">
       <c r="C42" t="s">
         <v>69</v>
       </c>
@@ -2646,7 +2751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" ht="24.0" customHeight="true">
+    <row r="43" ht="24" customHeight="1" spans="3:7">
       <c r="C43" t="s">
         <v>71</v>
       </c>
@@ -2663,7 +2768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="24.0" customHeight="true">
+    <row r="44" ht="24" customHeight="1" spans="3:7">
       <c r="C44" t="s">
         <v>72</v>
       </c>
@@ -2680,7 +2785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" ht="24.0" customHeight="true">
+    <row r="45" ht="24" customHeight="1" spans="3:7">
       <c r="C45" t="s">
         <v>73</v>
       </c>
@@ -2697,7 +2802,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" ht="24.0" customHeight="true">
+    <row r="46" ht="24" customHeight="1" spans="3:7">
       <c r="C46" t="s">
         <v>74</v>
       </c>
@@ -2714,7 +2819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" ht="24.0" customHeight="true">
+    <row r="47" ht="24" customHeight="1" spans="3:7">
       <c r="C47" t="s">
         <v>76</v>
       </c>
@@ -2731,7 +2836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" ht="24.0" customHeight="true">
+    <row r="48" ht="24" customHeight="1" spans="3:7">
       <c r="C48" t="s">
         <v>78</v>
       </c>
@@ -2748,7 +2853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" ht="24.0" customHeight="true">
+    <row r="49" ht="24" customHeight="1" spans="3:7">
       <c r="C49" t="s">
         <v>79</v>
       </c>
@@ -2765,7 +2870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" ht="24.0" customHeight="true">
+    <row r="50" ht="24" customHeight="1" spans="3:7">
       <c r="C50" t="s">
         <v>80</v>
       </c>
@@ -2782,7 +2887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" ht="24.0" customHeight="true">
+    <row r="51" ht="24" customHeight="1" spans="3:7">
       <c r="C51" t="s">
         <v>81</v>
       </c>
@@ -2799,7 +2904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" ht="24.0" customHeight="true">
+    <row r="52" ht="24" customHeight="1" spans="3:7">
       <c r="C52" t="s">
         <v>83</v>
       </c>
@@ -2816,7 +2921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" ht="24.0" customHeight="true">
+    <row r="53" ht="24" customHeight="1" spans="3:7">
       <c r="C53" t="s">
         <v>85</v>
       </c>
@@ -2833,7 +2938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" ht="24.0" customHeight="true">
+    <row r="54" ht="24" customHeight="1" spans="3:7">
       <c r="C54" t="s">
         <v>86</v>
       </c>
@@ -2850,7 +2955,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" ht="24.0" customHeight="true">
+    <row r="55" ht="24" customHeight="1" spans="3:7">
       <c r="C55" t="s">
         <v>87</v>
       </c>
@@ -2867,7 +2972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" ht="24.0" customHeight="true">
+    <row r="56" ht="24" customHeight="1" spans="3:7">
       <c r="C56" t="s">
         <v>88</v>
       </c>
@@ -2884,7 +2989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" ht="24.0" customHeight="true">
+    <row r="57" ht="24" customHeight="1" spans="3:7">
       <c r="C57" t="s">
         <v>90</v>
       </c>
@@ -2901,7 +3006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" ht="24.0" customHeight="true">
+    <row r="58" ht="24" customHeight="1" spans="3:7">
       <c r="C58" t="s">
         <v>92</v>
       </c>
@@ -2918,7 +3023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" ht="24.0" customHeight="true">
+    <row r="59" ht="24" customHeight="1" spans="3:7">
       <c r="C59" t="s">
         <v>93</v>
       </c>
@@ -2935,7 +3040,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" ht="24.0" customHeight="true">
+    <row r="60" ht="24" customHeight="1" spans="3:7">
       <c r="C60" t="s">
         <v>94</v>
       </c>
@@ -2952,7 +3057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" ht="24.0" customHeight="true">
+    <row r="61" ht="24" customHeight="1" spans="3:7">
       <c r="C61" t="s">
         <v>95</v>
       </c>
@@ -2969,7 +3074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" ht="24.0" customHeight="true">
+    <row r="62" ht="24" customHeight="1" spans="3:7">
       <c r="C62" t="s">
         <v>97</v>
       </c>
@@ -2986,7 +3091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" ht="24.0" customHeight="true">
+    <row r="63" ht="24" customHeight="1" spans="3:7">
       <c r="C63" t="s">
         <v>99</v>
       </c>
@@ -3003,7 +3108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" ht="24.0" customHeight="true">
+    <row r="64" ht="24" customHeight="1" spans="3:7">
       <c r="C64" t="s">
         <v>100</v>
       </c>
@@ -3020,7 +3125,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" ht="24.0" customHeight="true">
+    <row r="65" ht="24" customHeight="1" spans="3:7">
       <c r="C65" t="s">
         <v>101</v>
       </c>
@@ -3037,7 +3142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" ht="24.0" customHeight="true">
+    <row r="66" ht="24" customHeight="1" spans="3:7">
       <c r="C66" t="s">
         <v>102</v>
       </c>
@@ -3054,7 +3159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" ht="24.0" customHeight="true">
+    <row r="67" ht="24" customHeight="1" spans="3:7">
       <c r="C67" t="s">
         <v>104</v>
       </c>
@@ -3071,7 +3176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" ht="24.0" customHeight="true">
+    <row r="68" ht="24" customHeight="1" spans="3:7">
       <c r="C68" t="s">
         <v>106</v>
       </c>
@@ -3088,7 +3193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" ht="24.0" customHeight="true">
+    <row r="69" ht="24" customHeight="1" spans="3:7">
       <c r="C69" t="s">
         <v>107</v>
       </c>
@@ -3105,7 +3210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" ht="24.0" customHeight="true">
+    <row r="70" ht="24" customHeight="1" spans="3:7">
       <c r="C70" t="s">
         <v>108</v>
       </c>
@@ -3122,7 +3227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" ht="24.0" customHeight="true">
+    <row r="71" ht="24" customHeight="1" spans="3:7">
       <c r="C71" t="s">
         <v>109</v>
       </c>
@@ -3139,7 +3244,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" ht="24.0" customHeight="true">
+    <row r="72" ht="24" customHeight="1" spans="3:7">
       <c r="C72" t="s">
         <v>111</v>
       </c>
@@ -3156,7 +3261,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" ht="24.0" customHeight="true">
+    <row r="73" ht="24" customHeight="1" spans="3:7">
       <c r="C73" t="s">
         <v>113</v>
       </c>
@@ -3173,7 +3278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" ht="24.0" customHeight="true">
+    <row r="74" ht="24" customHeight="1" spans="3:7">
       <c r="C74" t="s">
         <v>114</v>
       </c>
@@ -3190,7 +3295,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" ht="24.0" customHeight="true">
+    <row r="75" ht="24" customHeight="1" spans="3:7">
       <c r="C75" t="s">
         <v>115</v>
       </c>
@@ -3207,7 +3312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" ht="24.0" customHeight="true">
+    <row r="76" ht="24" customHeight="1" spans="3:7">
       <c r="C76" t="s">
         <v>116</v>
       </c>
@@ -3224,7 +3329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" ht="24.0" customHeight="true">
+    <row r="77" ht="24" customHeight="1" spans="3:7">
       <c r="C77" t="s">
         <v>118</v>
       </c>
@@ -3241,7 +3346,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" ht="24.0" customHeight="true">
+    <row r="78" ht="24" customHeight="1" spans="3:7">
       <c r="C78" t="s">
         <v>120</v>
       </c>
@@ -3258,7 +3363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" ht="24.0" customHeight="true">
+    <row r="79" ht="24" customHeight="1" spans="3:7">
       <c r="C79" t="s">
         <v>121</v>
       </c>
@@ -3275,7 +3380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" ht="24.0" customHeight="true">
+    <row r="80" ht="24" customHeight="1" spans="3:7">
       <c r="C80" t="s">
         <v>122</v>
       </c>
@@ -3292,7 +3397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" ht="24.0" customHeight="true">
+    <row r="81" ht="24" customHeight="1" spans="3:7">
       <c r="C81" t="s">
         <v>123</v>
       </c>
@@ -3309,7 +3414,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" ht="24.0" customHeight="true">
+    <row r="82" ht="24" customHeight="1" spans="3:7">
       <c r="C82" t="s">
         <v>125</v>
       </c>
@@ -3326,7 +3431,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" ht="24.0" customHeight="true">
+    <row r="83" ht="24" customHeight="1" spans="3:7">
       <c r="C83" t="s">
         <v>127</v>
       </c>
@@ -3343,7 +3448,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" ht="24.0" customHeight="true">
+    <row r="84" ht="24" customHeight="1" spans="3:7">
       <c r="C84" t="s">
         <v>128</v>
       </c>
@@ -3360,7 +3465,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" ht="24.0" customHeight="true">
+    <row r="85" ht="24" customHeight="1" spans="3:7">
       <c r="C85" t="s">
         <v>129</v>
       </c>
@@ -3377,7 +3482,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" ht="24.0" customHeight="true">
+    <row r="86" ht="24" customHeight="1" spans="3:7">
       <c r="C86" t="s">
         <v>130</v>
       </c>
@@ -3394,7 +3499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" ht="24.0" customHeight="true">
+    <row r="87" ht="24" customHeight="1" spans="3:7">
       <c r="C87" t="s">
         <v>132</v>
       </c>
@@ -3411,7 +3516,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" ht="24.0" customHeight="true">
+    <row r="88" ht="24" customHeight="1" spans="3:7">
       <c r="C88" t="s">
         <v>134</v>
       </c>
@@ -3428,7 +3533,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" ht="24.0" customHeight="true">
+    <row r="89" ht="24" customHeight="1" spans="3:7">
       <c r="C89" t="s">
         <v>135</v>
       </c>
@@ -3445,7 +3550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" ht="24.0" customHeight="true">
+    <row r="90" ht="24" customHeight="1" spans="3:7">
       <c r="C90" t="s">
         <v>136</v>
       </c>
@@ -3462,7 +3567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" ht="24.0" customHeight="true">
+    <row r="91" ht="24" customHeight="1" spans="3:7">
       <c r="C91" t="s">
         <v>137</v>
       </c>
@@ -3479,7 +3584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" ht="24.0" customHeight="true">
+    <row r="92" ht="24" customHeight="1" spans="3:7">
       <c r="C92" t="s">
         <v>139</v>
       </c>
@@ -3496,7 +3601,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" ht="24.0" customHeight="true">
+    <row r="93" ht="24" customHeight="1" spans="3:7">
       <c r="C93" t="s">
         <v>141</v>
       </c>
@@ -3513,7 +3618,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" ht="24.0" customHeight="true">
+    <row r="94" ht="24" customHeight="1" spans="3:7">
       <c r="C94" t="s">
         <v>142</v>
       </c>
@@ -3530,7 +3635,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" ht="24.0" customHeight="true">
+    <row r="95" ht="24" customHeight="1" spans="3:7">
       <c r="C95" t="s">
         <v>143</v>
       </c>
@@ -3547,7 +3652,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" ht="24.0" customHeight="true">
+    <row r="96" ht="24" customHeight="1" spans="3:7">
       <c r="C96" t="s">
         <v>144</v>
       </c>
@@ -3564,7 +3669,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" ht="24.0" customHeight="true">
+    <row r="97" ht="24" customHeight="1" spans="3:7">
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -3581,7 +3686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" ht="24.0" customHeight="true">
+    <row r="98" ht="24" customHeight="1" spans="3:7">
       <c r="C98" t="s">
         <v>148</v>
       </c>
@@ -3598,7 +3703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" ht="24.0" customHeight="true">
+    <row r="99" ht="24" customHeight="1" spans="3:7">
       <c r="C99" t="s">
         <v>149</v>
       </c>
@@ -3615,7 +3720,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" ht="24.0" customHeight="true">
+    <row r="100" ht="24" customHeight="1" spans="3:7">
       <c r="C100" t="s">
         <v>150</v>
       </c>
@@ -3632,7 +3737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" ht="24.0" customHeight="true">
+    <row r="101" ht="24" customHeight="1" spans="3:7">
       <c r="C101" t="s">
         <v>151</v>
       </c>
@@ -3649,7 +3754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" ht="24.0" customHeight="true">
+    <row r="102" ht="24" customHeight="1" spans="3:7">
       <c r="C102" t="s">
         <v>153</v>
       </c>
@@ -3666,7 +3771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" ht="24.0" customHeight="true">
+    <row r="103" ht="24" customHeight="1" spans="3:7">
       <c r="C103" t="s">
         <v>155</v>
       </c>
@@ -3683,7 +3788,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" ht="24.0" customHeight="true">
+    <row r="104" ht="24" customHeight="1" spans="3:7">
       <c r="C104" t="s">
         <v>156</v>
       </c>
@@ -3700,7 +3805,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" ht="24.0" customHeight="true">
+    <row r="105" ht="24" customHeight="1" spans="3:7">
       <c r="C105" t="s">
         <v>157</v>
       </c>
@@ -3717,7 +3822,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" ht="24.0" customHeight="true">
+    <row r="106" ht="24" customHeight="1" spans="3:7">
       <c r="C106" t="s">
         <v>158</v>
       </c>
@@ -3734,7 +3839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" ht="24.0" customHeight="true">
+    <row r="107" ht="24" customHeight="1" spans="3:7">
       <c r="C107" t="s">
         <v>160</v>
       </c>
@@ -3751,7 +3856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" ht="24.0" customHeight="true">
+    <row r="108" ht="24" customHeight="1" spans="3:7">
       <c r="C108" t="s">
         <v>162</v>
       </c>
@@ -3768,7 +3873,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" ht="24.0" customHeight="true">
+    <row r="109" ht="24" customHeight="1" spans="3:7">
       <c r="C109" t="s">
         <v>163</v>
       </c>
@@ -3785,7 +3890,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" ht="24.0" customHeight="true">
+    <row r="110" ht="24" customHeight="1" spans="3:7">
       <c r="C110" t="s">
         <v>164</v>
       </c>
@@ -3802,7 +3907,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" ht="24.0" customHeight="true">
+    <row r="111" ht="24" customHeight="1" spans="3:7">
       <c r="C111" t="s">
         <v>165</v>
       </c>
@@ -3819,7 +3924,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" ht="24.0" customHeight="true">
+    <row r="112" ht="24" customHeight="1" spans="3:7">
       <c r="C112" t="s">
         <v>167</v>
       </c>
@@ -3836,7 +3941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" ht="24.0" customHeight="true">
+    <row r="113" ht="24" customHeight="1" spans="3:7">
       <c r="C113" t="s">
         <v>169</v>
       </c>
@@ -3853,7 +3958,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" ht="24.0" customHeight="true">
+    <row r="114" ht="24" customHeight="1" spans="3:7">
       <c r="C114" t="s">
         <v>170</v>
       </c>
@@ -3870,7 +3975,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" ht="24.0" customHeight="true">
+    <row r="115" ht="24" customHeight="1" spans="3:7">
       <c r="C115" t="s">
         <v>171</v>
       </c>
@@ -3887,7 +3992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" ht="24.0" customHeight="true">
+    <row r="116" ht="24" customHeight="1" spans="3:7">
       <c r="C116" t="s">
         <v>172</v>
       </c>
@@ -3904,7 +4009,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="117" ht="24.0" customHeight="true">
+    <row r="117" ht="24" customHeight="1" spans="3:7">
       <c r="C117" t="s">
         <v>174</v>
       </c>
@@ -3921,7 +4026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" ht="24.0" customHeight="true">
+    <row r="118" ht="24" customHeight="1" spans="3:7">
       <c r="C118" t="s">
         <v>176</v>
       </c>
@@ -3938,7 +4043,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" ht="24.0" customHeight="true">
+    <row r="119" ht="24" customHeight="1" spans="3:7">
       <c r="C119" t="s">
         <v>177</v>
       </c>
@@ -3955,7 +4060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" ht="24.0" customHeight="true">
+    <row r="120" ht="24" customHeight="1" spans="3:7">
       <c r="C120" t="s">
         <v>178</v>
       </c>
@@ -3972,7 +4077,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" ht="24.0" customHeight="true">
+    <row r="121" ht="24" customHeight="1" spans="3:7">
       <c r="C121" t="s">
         <v>179</v>
       </c>
@@ -3989,7 +4094,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122" ht="24.0" customHeight="true">
+    <row r="122" ht="24" customHeight="1" spans="3:7">
       <c r="C122" t="s">
         <v>181</v>
       </c>
@@ -4006,7 +4111,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123" ht="24.0" customHeight="true">
+    <row r="123" ht="24" customHeight="1" spans="3:7">
       <c r="C123" t="s">
         <v>183</v>
       </c>
@@ -4023,7 +4128,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" ht="24.0" customHeight="true">
+    <row r="124" ht="24" customHeight="1" spans="3:7">
       <c r="C124" t="s">
         <v>184</v>
       </c>
@@ -4040,7 +4145,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" ht="24.0" customHeight="true">
+    <row r="125" ht="24" customHeight="1" spans="3:7">
       <c r="C125" t="s">
         <v>185</v>
       </c>
@@ -4057,7 +4162,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="126" ht="24.0" customHeight="true">
+    <row r="126" ht="24" customHeight="1" spans="3:7">
       <c r="C126" t="s">
         <v>186</v>
       </c>
@@ -4074,7 +4179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="127" ht="24.0" customHeight="true">
+    <row r="127" ht="24" customHeight="1" spans="3:7">
       <c r="C127" t="s">
         <v>188</v>
       </c>
@@ -4091,7 +4196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" ht="24.0" customHeight="true">
+    <row r="128" ht="24" customHeight="1" spans="3:7">
       <c r="C128" t="s">
         <v>190</v>
       </c>
@@ -4108,7 +4213,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="129" ht="24.0" customHeight="true">
+    <row r="129" ht="24" customHeight="1" spans="3:7">
       <c r="C129" t="s">
         <v>191</v>
       </c>
@@ -4125,7 +4230,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130" ht="24.0" customHeight="true">
+    <row r="130" ht="24" customHeight="1" spans="3:7">
       <c r="C130" t="s">
         <v>192</v>
       </c>
@@ -4142,7 +4247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" ht="24.0" customHeight="true">
+    <row r="131" ht="24" customHeight="1" spans="3:7">
       <c r="C131" t="s">
         <v>193</v>
       </c>
@@ -4159,7 +4264,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" ht="24.0" customHeight="true">
+    <row r="132" ht="24" customHeight="1" spans="3:7">
       <c r="C132" t="s">
         <v>195</v>
       </c>
@@ -4176,7 +4281,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" ht="24.0" customHeight="true">
+    <row r="133" ht="24" customHeight="1" spans="3:7">
       <c r="C133" t="s">
         <v>197</v>
       </c>
@@ -4193,7 +4298,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="134" ht="24.0" customHeight="true">
+    <row r="134" ht="24" customHeight="1" spans="3:7">
       <c r="C134" t="s">
         <v>198</v>
       </c>
@@ -4210,7 +4315,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" ht="24.0" customHeight="true">
+    <row r="135" ht="24" customHeight="1" spans="3:7">
       <c r="C135" t="s">
         <v>199</v>
       </c>
@@ -4227,7 +4332,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" ht="24.0" customHeight="true">
+    <row r="136" ht="24" customHeight="1" spans="3:7">
       <c r="C136" t="s">
         <v>200</v>
       </c>
@@ -4244,7 +4349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="137" ht="24.0" customHeight="true">
+    <row r="137" ht="24" customHeight="1" spans="3:7">
       <c r="C137" t="s">
         <v>202</v>
       </c>
@@ -4261,7 +4366,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" ht="24.0" customHeight="true">
+    <row r="138" ht="24" customHeight="1" spans="3:7">
       <c r="C138" t="s">
         <v>204</v>
       </c>
@@ -4278,7 +4383,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" ht="24.0" customHeight="true">
+    <row r="139" ht="24" customHeight="1" spans="3:7">
       <c r="C139" t="s">
         <v>205</v>
       </c>
@@ -4295,7 +4400,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" ht="24.0" customHeight="true">
+    <row r="140" ht="24" customHeight="1" spans="3:7">
       <c r="C140" t="s">
         <v>206</v>
       </c>
@@ -4312,7 +4417,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" ht="24.0" customHeight="true">
+    <row r="141" ht="24" customHeight="1" spans="3:7">
       <c r="C141" t="s">
         <v>207</v>
       </c>
@@ -4329,7 +4434,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" ht="24.0" customHeight="true">
+    <row r="142" ht="24" customHeight="1" spans="3:7">
       <c r="C142" t="s">
         <v>209</v>
       </c>
@@ -4346,7 +4451,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" ht="24.0" customHeight="true">
+    <row r="143" ht="24" customHeight="1" spans="3:7">
       <c r="C143" t="s">
         <v>211</v>
       </c>
@@ -4363,7 +4468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" ht="24.0" customHeight="true">
+    <row r="144" ht="24" customHeight="1" spans="3:7">
       <c r="C144" t="s">
         <v>212</v>
       </c>
@@ -4380,7 +4485,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" ht="24.0" customHeight="true">
+    <row r="145" ht="24" customHeight="1" spans="3:7">
       <c r="C145" t="s">
         <v>213</v>
       </c>
@@ -4397,7 +4502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" ht="24.0" customHeight="true">
+    <row r="146" ht="24" customHeight="1" spans="3:7">
       <c r="C146" t="s">
         <v>214</v>
       </c>
@@ -4414,7 +4519,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" ht="24.0" customHeight="true">
+    <row r="147" ht="24" customHeight="1" spans="3:7">
       <c r="C147" t="s">
         <v>216</v>
       </c>
@@ -4431,7 +4536,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" ht="24.0" customHeight="true">
+    <row r="148" ht="24" customHeight="1" spans="3:7">
       <c r="C148" t="s">
         <v>218</v>
       </c>
@@ -4448,7 +4553,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="149" ht="24.0" customHeight="true">
+    <row r="149" ht="24" customHeight="1" spans="3:7">
       <c r="C149" t="s">
         <v>219</v>
       </c>
@@ -4465,7 +4570,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" ht="24.0" customHeight="true">
+    <row r="150" ht="24" customHeight="1" spans="3:7">
       <c r="C150" t="s">
         <v>220</v>
       </c>
@@ -4482,7 +4587,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" ht="24.0" customHeight="true">
+    <row r="151" ht="24" customHeight="1" spans="3:7">
       <c r="C151" t="s">
         <v>221</v>
       </c>
@@ -4499,7 +4604,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="152" ht="24.0" customHeight="true">
+    <row r="152" ht="24" customHeight="1" spans="3:7">
       <c r="C152" t="s">
         <v>223</v>
       </c>
@@ -4516,7 +4621,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="153" ht="24.0" customHeight="true">
+    <row r="153" ht="24" customHeight="1" spans="3:7">
       <c r="C153" t="s">
         <v>225</v>
       </c>
@@ -4533,7 +4638,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" ht="24.0" customHeight="true">
+    <row r="154" ht="24" customHeight="1" spans="3:7">
       <c r="C154" t="s">
         <v>226</v>
       </c>
@@ -4550,7 +4655,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="155" ht="24.0" customHeight="true">
+    <row r="155" ht="24" customHeight="1" spans="3:7">
       <c r="C155" t="s">
         <v>227</v>
       </c>
@@ -4567,7 +4672,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="156" ht="24.0" customHeight="true">
+    <row r="156" ht="24" customHeight="1" spans="3:7">
       <c r="C156" t="s">
         <v>228</v>
       </c>
@@ -4584,7 +4689,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" ht="24.0" customHeight="true">
+    <row r="157" ht="24" customHeight="1" spans="3:7">
       <c r="C157" t="s">
         <v>230</v>
       </c>
@@ -4601,7 +4706,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" ht="24.0" customHeight="true">
+    <row r="158" ht="24" customHeight="1" spans="3:7">
       <c r="C158" t="s">
         <v>232</v>
       </c>
@@ -4618,7 +4723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="159" ht="24.0" customHeight="true">
+    <row r="159" ht="24" customHeight="1" spans="3:7">
       <c r="C159" t="s">
         <v>233</v>
       </c>
@@ -4635,7 +4740,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="160" ht="24.0" customHeight="true">
+    <row r="160" ht="24" customHeight="1" spans="3:7">
       <c r="C160" t="s">
         <v>234</v>
       </c>
@@ -4652,7 +4757,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" ht="24.0" customHeight="true">
+    <row r="161" ht="24" customHeight="1" spans="3:7">
       <c r="C161" t="s">
         <v>235</v>
       </c>
@@ -4669,7 +4774,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" ht="24.0" customHeight="true">
+    <row r="162" ht="24" customHeight="1" spans="3:7">
       <c r="C162" t="s">
         <v>237</v>
       </c>
@@ -4686,7 +4791,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" ht="24.0" customHeight="true">
+    <row r="163" ht="24" customHeight="1" spans="3:7">
       <c r="C163" t="s">
         <v>239</v>
       </c>
@@ -4703,7 +4808,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="164" ht="24.0" customHeight="true">
+    <row r="164" ht="24" customHeight="1" spans="3:7">
       <c r="C164" t="s">
         <v>240</v>
       </c>
@@ -4720,7 +4825,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="165" ht="24.0" customHeight="true">
+    <row r="165" ht="24" customHeight="1" spans="3:7">
       <c r="C165" t="s">
         <v>241</v>
       </c>
@@ -4737,7 +4842,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="166" ht="24.0" customHeight="true">
+    <row r="166" ht="24" customHeight="1" spans="3:7">
       <c r="C166" t="s">
         <v>242</v>
       </c>
@@ -4754,7 +4859,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" ht="24.0" customHeight="true">
+    <row r="167" ht="24" customHeight="1" spans="3:7">
       <c r="C167" t="s">
         <v>244</v>
       </c>
@@ -4771,7 +4876,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" ht="24.0" customHeight="true">
+    <row r="168" ht="24" customHeight="1" spans="3:7">
       <c r="C168" t="s">
         <v>246</v>
       </c>
@@ -4788,7 +4893,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="169" ht="24.0" customHeight="true">
+    <row r="169" ht="24" customHeight="1" spans="3:7">
       <c r="C169" t="s">
         <v>247</v>
       </c>
@@ -4805,7 +4910,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="170" ht="24.0" customHeight="true">
+    <row r="170" ht="24" customHeight="1" spans="3:7">
       <c r="C170" t="s">
         <v>248</v>
       </c>
@@ -4822,7 +4927,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" ht="24.0" customHeight="true">
+    <row r="171" ht="24" customHeight="1" spans="3:7">
       <c r="C171" t="s">
         <v>249</v>
       </c>
@@ -4839,7 +4944,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="172" ht="24.0" customHeight="true">
+    <row r="172" ht="24" customHeight="1" spans="3:7">
       <c r="C172" t="s">
         <v>251</v>
       </c>
@@ -4856,7 +4961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="173" ht="24.0" customHeight="true">
+    <row r="173" ht="24" customHeight="1" spans="3:7">
       <c r="C173" t="s">
         <v>253</v>
       </c>
@@ -4873,7 +4978,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="174" ht="24.0" customHeight="true">
+    <row r="174" ht="24" customHeight="1" spans="3:7">
       <c r="C174" t="s">
         <v>254</v>
       </c>
@@ -4890,7 +4995,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="175" ht="24.0" customHeight="true">
+    <row r="175" ht="24" customHeight="1" spans="3:7">
       <c r="C175" t="s">
         <v>255</v>
       </c>
@@ -4907,7 +5012,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="176" ht="24.0" customHeight="true">
+    <row r="176" ht="24" customHeight="1" spans="3:7">
       <c r="C176" t="s">
         <v>256</v>
       </c>
@@ -4924,7 +5029,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" ht="24.0" customHeight="true">
+    <row r="177" ht="24" customHeight="1" spans="3:7">
       <c r="C177" t="s">
         <v>258</v>
       </c>
@@ -4941,7 +5046,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="178" ht="24.0" customHeight="true">
+    <row r="178" ht="24" customHeight="1" spans="3:7">
       <c r="C178" t="s">
         <v>260</v>
       </c>
@@ -4958,7 +5063,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" ht="24.0" customHeight="true">
+    <row r="179" ht="24" customHeight="1" spans="3:7">
       <c r="C179" t="s">
         <v>261</v>
       </c>
@@ -4975,7 +5080,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="180" ht="24.0" customHeight="true">
+    <row r="180" ht="24" customHeight="1" spans="3:7">
       <c r="C180" t="s">
         <v>262</v>
       </c>
@@ -4992,7 +5097,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" ht="24.0" customHeight="true">
+    <row r="181" ht="24" customHeight="1" spans="3:7">
       <c r="C181" t="s">
         <v>263</v>
       </c>
@@ -5009,7 +5114,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="182" ht="24.0" customHeight="true">
+    <row r="182" ht="24" customHeight="1" spans="3:7">
       <c r="C182" t="s">
         <v>265</v>
       </c>
@@ -5026,7 +5131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" ht="24.0" customHeight="true">
+    <row r="183" ht="24" customHeight="1" spans="3:7">
       <c r="C183" t="s">
         <v>267</v>
       </c>
@@ -5043,7 +5148,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" ht="24.0" customHeight="true">
+    <row r="184" ht="24" customHeight="1" spans="3:7">
       <c r="C184" t="s">
         <v>268</v>
       </c>
@@ -5060,7 +5165,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="185" ht="24.0" customHeight="true">
+    <row r="185" ht="24" customHeight="1" spans="3:7">
       <c r="C185" t="s">
         <v>269</v>
       </c>
@@ -5077,7 +5182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="186" ht="24.0" customHeight="true">
+    <row r="186" ht="24" customHeight="1" spans="3:7">
       <c r="C186" t="s">
         <v>270</v>
       </c>
@@ -5094,7 +5199,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="187" ht="24.0" customHeight="true">
+    <row r="187" ht="24" customHeight="1" spans="3:7">
       <c r="C187" t="s">
         <v>272</v>
       </c>
@@ -5111,7 +5216,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="188" ht="24.0" customHeight="true">
+    <row r="188" ht="24" customHeight="1" spans="3:7">
       <c r="C188" t="s">
         <v>274</v>
       </c>
@@ -5128,7 +5233,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" ht="24.0" customHeight="true">
+    <row r="189" ht="24" customHeight="1" spans="3:7">
       <c r="C189" t="s">
         <v>275</v>
       </c>
@@ -5145,7 +5250,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" ht="24.0" customHeight="true">
+    <row r="190" ht="24" customHeight="1" spans="3:7">
       <c r="C190" t="s">
         <v>276</v>
       </c>
@@ -5162,7 +5267,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" ht="24.0" customHeight="true">
+    <row r="191" ht="24" customHeight="1" spans="3:7">
       <c r="C191" t="s">
         <v>277</v>
       </c>
@@ -5179,7 +5284,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="192" ht="24.0" customHeight="true">
+    <row r="192" ht="24" customHeight="1" spans="3:7">
       <c r="C192" t="s">
         <v>279</v>
       </c>
@@ -5196,7 +5301,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="193" ht="24.0" customHeight="true">
+    <row r="193" ht="24" customHeight="1" spans="3:7">
       <c r="C193" t="s">
         <v>281</v>
       </c>
@@ -5213,7 +5318,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="194" ht="24.0" customHeight="true">
+    <row r="194" ht="24" customHeight="1" spans="3:7">
       <c r="C194" t="s">
         <v>282</v>
       </c>
@@ -5230,7 +5335,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" ht="24.0" customHeight="true">
+    <row r="195" ht="24" customHeight="1" spans="3:7">
       <c r="C195" t="s">
         <v>283</v>
       </c>
@@ -5247,7 +5352,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" ht="24.0" customHeight="true">
+    <row r="196" ht="24" customHeight="1" spans="3:7">
       <c r="C196" t="s">
         <v>284</v>
       </c>
@@ -5264,7 +5369,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="197" ht="24.0" customHeight="true">
+    <row r="197" ht="24" customHeight="1" spans="3:7">
       <c r="C197" t="s">
         <v>286</v>
       </c>
@@ -5281,7 +5386,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="198" ht="24.0" customHeight="true">
+    <row r="198" ht="24" customHeight="1" spans="3:7">
       <c r="C198" t="s">
         <v>288</v>
       </c>
@@ -5298,7 +5403,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="199" ht="24.0" customHeight="true">
+    <row r="199" ht="24" customHeight="1" spans="3:7">
       <c r="C199" t="s">
         <v>289</v>
       </c>
@@ -5315,7 +5420,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="200" ht="24.0" customHeight="true">
+    <row r="200" ht="24" customHeight="1" spans="3:7">
       <c r="C200" t="s">
         <v>290</v>
       </c>
@@ -5332,7 +5437,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="201" ht="24.0" customHeight="true">
+    <row r="201" ht="24" customHeight="1" spans="3:7">
       <c r="C201" t="s">
         <v>291</v>
       </c>
@@ -5349,7 +5454,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="202" ht="24.0" customHeight="true">
+    <row r="202" ht="24" customHeight="1" spans="3:7">
       <c r="C202" t="s">
         <v>293</v>
       </c>
@@ -5366,7 +5471,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="203" ht="24.0" customHeight="true">
+    <row r="203" ht="24" customHeight="1" spans="3:7">
       <c r="C203" t="s">
         <v>295</v>
       </c>
@@ -5383,7 +5488,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="204" ht="24.0" customHeight="true">
+    <row r="204" ht="24" customHeight="1" spans="3:7">
       <c r="C204" t="s">
         <v>296</v>
       </c>
@@ -5400,7 +5505,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="205" ht="24.0" customHeight="true">
+    <row r="205" ht="24" customHeight="1" spans="3:7">
       <c r="C205" t="s">
         <v>297</v>
       </c>
@@ -5416,6 +5521,506 @@
       <c r="G205" t="s">
         <v>294</v>
       </c>
+    </row>
+    <row r="206" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" t="s">
+        <v>298</v>
+      </c>
+      <c r="D206" t="s">
+        <v>298</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>299</v>
+      </c>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" t="s">
+        <v>300</v>
+      </c>
+      <c r="D207" t="s">
+        <v>298</v>
+      </c>
+      <c r="E207" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" t="s">
+        <v>301</v>
+      </c>
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" t="s">
+        <v>302</v>
+      </c>
+      <c r="D208" t="s">
+        <v>298</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" t="s">
+        <v>301</v>
+      </c>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" t="s">
+        <v>303</v>
+      </c>
+      <c r="D209" t="s">
+        <v>298</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>301</v>
+      </c>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" t="s">
+        <v>304</v>
+      </c>
+      <c r="D210" t="s">
+        <v>298</v>
+      </c>
+      <c r="E210" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>301</v>
+      </c>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" t="s">
+        <v>305</v>
+      </c>
+      <c r="D211" t="s">
+        <v>305</v>
+      </c>
+      <c r="E211" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>306</v>
+      </c>
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" t="s">
+        <v>307</v>
+      </c>
+      <c r="D212" t="s">
+        <v>305</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>308</v>
+      </c>
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" t="s">
+        <v>309</v>
+      </c>
+      <c r="D213" t="s">
+        <v>305</v>
+      </c>
+      <c r="E213" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>308</v>
+      </c>
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" t="s">
+        <v>310</v>
+      </c>
+      <c r="D214" t="s">
+        <v>305</v>
+      </c>
+      <c r="E214" t="s">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>308</v>
+      </c>
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" t="s">
+        <v>311</v>
+      </c>
+      <c r="D215" t="s">
+        <v>305</v>
+      </c>
+      <c r="E215" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>308</v>
+      </c>
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" t="s">
+        <v>312</v>
+      </c>
+      <c r="D216" t="s">
+        <v>312</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>313</v>
+      </c>
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" t="s">
+        <v>314</v>
+      </c>
+      <c r="D217" t="s">
+        <v>312</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" t="s">
+        <v>315</v>
+      </c>
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" t="s">
+        <v>316</v>
+      </c>
+      <c r="D218" t="s">
+        <v>312</v>
+      </c>
+      <c r="E218" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>315</v>
+      </c>
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" t="s">
+        <v>317</v>
+      </c>
+      <c r="D219" t="s">
+        <v>312</v>
+      </c>
+      <c r="E219" t="s">
+        <v>21</v>
+      </c>
+      <c r="F219" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>315</v>
+      </c>
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" t="s">
+        <v>318</v>
+      </c>
+      <c r="D220" t="s">
+        <v>312</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
+      <c r="F220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>315</v>
+      </c>
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" t="s">
+        <v>319</v>
+      </c>
+      <c r="D221" t="s">
+        <v>319</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>320</v>
+      </c>
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" t="s">
+        <v>321</v>
+      </c>
+      <c r="D222" t="s">
+        <v>319</v>
+      </c>
+      <c r="E222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>322</v>
+      </c>
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" t="s">
+        <v>323</v>
+      </c>
+      <c r="D223" t="s">
+        <v>319</v>
+      </c>
+      <c r="E223" t="s">
+        <v>19</v>
+      </c>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" t="s">
+        <v>322</v>
+      </c>
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" t="s">
+        <v>324</v>
+      </c>
+      <c r="D224" t="s">
+        <v>319</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" t="s">
+        <v>322</v>
+      </c>
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" t="s">
+        <v>325</v>
+      </c>
+      <c r="D225" t="s">
+        <v>319</v>
+      </c>
+      <c r="E225" t="s">
+        <v>24</v>
+      </c>
+      <c r="F225" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225" t="s">
+        <v>322</v>
+      </c>
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" t="s">
+        <v>326</v>
+      </c>
+      <c r="D226" t="s">
+        <v>326</v>
+      </c>
+      <c r="E226" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
+        <v>327</v>
+      </c>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" t="s">
+        <v>328</v>
+      </c>
+      <c r="D227" t="s">
+        <v>326</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" t="s">
+        <v>329</v>
+      </c>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" t="s">
+        <v>330</v>
+      </c>
+      <c r="D228" t="s">
+        <v>326</v>
+      </c>
+      <c r="E228" t="s">
+        <v>19</v>
+      </c>
+      <c r="F228" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
+        <v>329</v>
+      </c>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" t="s">
+        <v>331</v>
+      </c>
+      <c r="D229" t="s">
+        <v>326</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" t="s">
+        <v>329</v>
+      </c>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" t="s">
+        <v>332</v>
+      </c>
+      <c r="D230" t="s">
+        <v>326</v>
+      </c>
+      <c r="E230" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" t="s">
+        <v>329</v>
+      </c>
+      <c r="H230" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="368">
   <si>
     <t>_id</t>
   </si>
@@ -1075,6 +1075,111 @@
   </si>
   <si>
     <t>454</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>50,50,50</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>50,50</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>51,51,51</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>51,51</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>52,52,52</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>52,52</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>53,53,53</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>53,53</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>54,54,54</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>54,54</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
   </si>
 </sst>
 </file>
@@ -2043,10 +2148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:I230"/>
+  <dimension ref="A3:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A206" sqref="$A206:$XFD230"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A231" sqref="$A231:$XFD255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6022,6 +6127,506 @@
       </c>
       <c r="H230" s="1"/>
     </row>
+    <row r="231" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" t="s">
+        <v>333</v>
+      </c>
+      <c r="D231" t="s">
+        <v>333</v>
+      </c>
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" t="s">
+        <v>334</v>
+      </c>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" t="s">
+        <v>335</v>
+      </c>
+      <c r="D232" t="s">
+        <v>333</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" t="s">
+        <v>336</v>
+      </c>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" t="s">
+        <v>337</v>
+      </c>
+      <c r="D233" t="s">
+        <v>333</v>
+      </c>
+      <c r="E233" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" t="s">
+        <v>336</v>
+      </c>
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" t="s">
+        <v>338</v>
+      </c>
+      <c r="D234" t="s">
+        <v>333</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" t="s">
+        <v>336</v>
+      </c>
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" t="s">
+        <v>339</v>
+      </c>
+      <c r="D235" t="s">
+        <v>333</v>
+      </c>
+      <c r="E235" t="s">
+        <v>24</v>
+      </c>
+      <c r="F235" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" t="s">
+        <v>336</v>
+      </c>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" t="s">
+        <v>340</v>
+      </c>
+      <c r="D236" t="s">
+        <v>340</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" t="s">
+        <v>341</v>
+      </c>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" t="s">
+        <v>342</v>
+      </c>
+      <c r="D237" t="s">
+        <v>340</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" t="s">
+        <v>343</v>
+      </c>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" t="s">
+        <v>344</v>
+      </c>
+      <c r="D238" t="s">
+        <v>340</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" t="s">
+        <v>343</v>
+      </c>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" t="s">
+        <v>345</v>
+      </c>
+      <c r="D239" t="s">
+        <v>340</v>
+      </c>
+      <c r="E239" t="s">
+        <v>21</v>
+      </c>
+      <c r="F239" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" t="s">
+        <v>343</v>
+      </c>
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" t="s">
+        <v>346</v>
+      </c>
+      <c r="D240" t="s">
+        <v>340</v>
+      </c>
+      <c r="E240" t="s">
+        <v>24</v>
+      </c>
+      <c r="F240" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" t="s">
+        <v>343</v>
+      </c>
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" t="s">
+        <v>347</v>
+      </c>
+      <c r="D241" t="s">
+        <v>347</v>
+      </c>
+      <c r="E241" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" t="s">
+        <v>348</v>
+      </c>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" t="s">
+        <v>349</v>
+      </c>
+      <c r="D242" t="s">
+        <v>347</v>
+      </c>
+      <c r="E242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" t="s">
+        <v>350</v>
+      </c>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" t="s">
+        <v>351</v>
+      </c>
+      <c r="D243" t="s">
+        <v>347</v>
+      </c>
+      <c r="E243" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" t="s">
+        <v>350</v>
+      </c>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" t="s">
+        <v>352</v>
+      </c>
+      <c r="D244" t="s">
+        <v>347</v>
+      </c>
+      <c r="E244" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244" t="s">
+        <v>22</v>
+      </c>
+      <c r="G244" t="s">
+        <v>350</v>
+      </c>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" t="s">
+        <v>353</v>
+      </c>
+      <c r="D245" t="s">
+        <v>347</v>
+      </c>
+      <c r="E245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" t="s">
+        <v>350</v>
+      </c>
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" t="s">
+        <v>354</v>
+      </c>
+      <c r="D246" t="s">
+        <v>354</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" t="s">
+        <v>355</v>
+      </c>
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" t="s">
+        <v>356</v>
+      </c>
+      <c r="D247" t="s">
+        <v>354</v>
+      </c>
+      <c r="E247" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" t="s">
+        <v>357</v>
+      </c>
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" t="s">
+        <v>358</v>
+      </c>
+      <c r="D248" t="s">
+        <v>354</v>
+      </c>
+      <c r="E248" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" t="s">
+        <v>357</v>
+      </c>
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" t="s">
+        <v>359</v>
+      </c>
+      <c r="D249" t="s">
+        <v>354</v>
+      </c>
+      <c r="E249" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" t="s">
+        <v>22</v>
+      </c>
+      <c r="G249" t="s">
+        <v>357</v>
+      </c>
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" t="s">
+        <v>360</v>
+      </c>
+      <c r="D250" t="s">
+        <v>354</v>
+      </c>
+      <c r="E250" t="s">
+        <v>24</v>
+      </c>
+      <c r="F250" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>357</v>
+      </c>
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" t="s">
+        <v>361</v>
+      </c>
+      <c r="D251" t="s">
+        <v>361</v>
+      </c>
+      <c r="E251" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" t="s">
+        <v>362</v>
+      </c>
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" t="s">
+        <v>363</v>
+      </c>
+      <c r="D252" t="s">
+        <v>361</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" t="s">
+        <v>364</v>
+      </c>
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" t="s">
+        <v>365</v>
+      </c>
+      <c r="D253" t="s">
+        <v>361</v>
+      </c>
+      <c r="E253" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" t="s">
+        <v>364</v>
+      </c>
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" t="s">
+        <v>366</v>
+      </c>
+      <c r="D254" t="s">
+        <v>361</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" t="s">
+        <v>364</v>
+      </c>
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" t="s">
+        <v>367</v>
+      </c>
+      <c r="D255" t="s">
+        <v>361</v>
+      </c>
+      <c r="E255" t="s">
+        <v>24</v>
+      </c>
+      <c r="F255" t="s">
+        <v>22</v>
+      </c>
+      <c r="G255" t="s">
+        <v>364</v>
+      </c>
+      <c r="H255" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5:I5 C3:C5" errorStyle="warning">

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="403">
   <si>
     <t>_id</t>
   </si>
@@ -1180,6 +1180,111 @@
   </si>
   <si>
     <t>504</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>55,55,55</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>55,55</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>56,56,56</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>56,56</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>57,57,57</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>57,57</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>58,58,58</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>58,58</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>59,59,59</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>59,59</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>554</t>
   </si>
 </sst>
 </file>
@@ -1829,6 +1934,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2148,10 +2254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:I255"/>
+  <dimension ref="A3:I280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A231" sqref="$A231:$XFD255"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266:D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6627,6 +6733,506 @@
       </c>
       <c r="H255" s="1"/>
     </row>
+    <row r="256" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" t="s">
+        <v>369</v>
+      </c>
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" t="s">
+        <v>371</v>
+      </c>
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" t="s">
+        <v>371</v>
+      </c>
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E259" t="s">
+        <v>21</v>
+      </c>
+      <c r="F259" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" t="s">
+        <v>371</v>
+      </c>
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E260" t="s">
+        <v>24</v>
+      </c>
+      <c r="F260" t="s">
+        <v>22</v>
+      </c>
+      <c r="G260" t="s">
+        <v>371</v>
+      </c>
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E261" t="s">
+        <v>11</v>
+      </c>
+      <c r="F261" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" t="s">
+        <v>376</v>
+      </c>
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E262" t="s">
+        <v>15</v>
+      </c>
+      <c r="F262" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" t="s">
+        <v>378</v>
+      </c>
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E263" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" t="s">
+        <v>378</v>
+      </c>
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E264" t="s">
+        <v>21</v>
+      </c>
+      <c r="F264" t="s">
+        <v>22</v>
+      </c>
+      <c r="G264" t="s">
+        <v>378</v>
+      </c>
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E265" t="s">
+        <v>24</v>
+      </c>
+      <c r="F265" t="s">
+        <v>22</v>
+      </c>
+      <c r="G265" t="s">
+        <v>378</v>
+      </c>
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" t="s">
+        <v>12</v>
+      </c>
+      <c r="G266" t="s">
+        <v>383</v>
+      </c>
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E267" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" t="s">
+        <v>385</v>
+      </c>
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E268" t="s">
+        <v>19</v>
+      </c>
+      <c r="F268" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" t="s">
+        <v>385</v>
+      </c>
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F269" t="s">
+        <v>22</v>
+      </c>
+      <c r="G269" t="s">
+        <v>385</v>
+      </c>
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+      <c r="F270" t="s">
+        <v>22</v>
+      </c>
+      <c r="G270" t="s">
+        <v>385</v>
+      </c>
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E271" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" t="s">
+        <v>390</v>
+      </c>
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E272" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" t="s">
+        <v>392</v>
+      </c>
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E273" t="s">
+        <v>19</v>
+      </c>
+      <c r="F273" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" t="s">
+        <v>392</v>
+      </c>
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E274" t="s">
+        <v>21</v>
+      </c>
+      <c r="F274" t="s">
+        <v>22</v>
+      </c>
+      <c r="G274" t="s">
+        <v>392</v>
+      </c>
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E275" t="s">
+        <v>24</v>
+      </c>
+      <c r="F275" t="s">
+        <v>22</v>
+      </c>
+      <c r="G275" t="s">
+        <v>392</v>
+      </c>
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E276" t="s">
+        <v>11</v>
+      </c>
+      <c r="F276" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276" t="s">
+        <v>397</v>
+      </c>
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E277" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" t="s">
+        <v>399</v>
+      </c>
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E278" t="s">
+        <v>19</v>
+      </c>
+      <c r="F278" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" t="s">
+        <v>399</v>
+      </c>
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279" t="s">
+        <v>22</v>
+      </c>
+      <c r="G279" t="s">
+        <v>399</v>
+      </c>
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E280" t="s">
+        <v>24</v>
+      </c>
+      <c r="F280" t="s">
+        <v>22</v>
+      </c>
+      <c r="G280" t="s">
+        <v>399</v>
+      </c>
+      <c r="H280" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5:I5 C3:C5" errorStyle="warning">

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="411">
   <si>
     <t>_id</t>
   </si>
@@ -1285,6 +1285,30 @@
   </si>
   <si>
     <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>75,75,75</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>75,75</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
   </si>
 </sst>
 </file>
@@ -1308,15 +1332,17 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1928,13 +1954,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2254,4984 +2281,5069 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:I280"/>
+  <dimension ref="A3:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266:D270"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
-      <c r="C3" s="2" t="s">
+    <row r="3" customHeight="1" spans="3:9">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="2" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:9">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="2" t="s">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:9">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="3:7">
-      <c r="C6" t="s">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:7">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:7">
-      <c r="C7" t="s">
+    <row r="7" customHeight="1" spans="3:7">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:7">
-      <c r="C8" t="s">
+    <row r="8" customHeight="1" spans="3:7">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:7">
-      <c r="C9" t="s">
+    <row r="9" customHeight="1" spans="3:7">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="3:7">
-      <c r="C10" t="s">
+    <row r="10" customHeight="1" spans="3:7">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="3:7">
-      <c r="C11" t="s">
+    <row r="11" customHeight="1" spans="3:7">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="3:7">
-      <c r="C12" t="s">
+    <row r="12" customHeight="1" spans="3:7">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="3:7">
-      <c r="C13" t="s">
+    <row r="13" customHeight="1" spans="3:7">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:7">
-      <c r="C14" t="s">
+    <row r="14" customHeight="1" spans="3:7">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:7">
-      <c r="C15" t="s">
+    <row r="15" customHeight="1" spans="3:7">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:7">
-      <c r="C16" t="s">
+    <row r="16" customHeight="1" spans="3:7">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:7">
-      <c r="C17" t="s">
+    <row r="17" customHeight="1" spans="3:7">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="3:7">
-      <c r="C18" t="s">
+    <row r="18" customHeight="1" spans="3:7">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="24" customHeight="1" spans="3:7">
-      <c r="C19" t="s">
+    <row r="19" customHeight="1" spans="3:7">
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="3:7">
-      <c r="C20" t="s">
+    <row r="20" customHeight="1" spans="3:7">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="3:7">
-      <c r="C21" t="s">
+    <row r="21" customHeight="1" spans="3:7">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="3:7">
-      <c r="C22" t="s">
+    <row r="22" customHeight="1" spans="3:7">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="3:7">
-      <c r="C23" t="s">
+    <row r="23" customHeight="1" spans="3:7">
+      <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="3:7">
-      <c r="C24" t="s">
+    <row r="24" customHeight="1" spans="3:7">
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="3:7">
-      <c r="C25" t="s">
+    <row r="25" customHeight="1" spans="3:7">
+      <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:7">
-      <c r="C26" t="s">
+    <row r="26" customHeight="1" spans="3:7">
+      <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="3:7">
-      <c r="C27" t="s">
+    <row r="27" customHeight="1" spans="3:7">
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:7">
-      <c r="C28" t="s">
+    <row r="28" customHeight="1" spans="3:7">
+      <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:7">
-      <c r="C29" t="s">
+    <row r="29" customHeight="1" spans="3:7">
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:7">
-      <c r="C30" t="s">
+    <row r="30" customHeight="1" spans="3:7">
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" ht="24" customHeight="1" spans="3:7">
-      <c r="C31" t="s">
+    <row r="31" customHeight="1" spans="3:7">
+      <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:7">
-      <c r="C32" t="s">
+    <row r="32" customHeight="1" spans="3:7">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="3:7">
-      <c r="C33" t="s">
+    <row r="33" customHeight="1" spans="3:7">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="3:7">
-      <c r="C34" t="s">
+    <row r="34" customHeight="1" spans="3:7">
+      <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="3:7">
-      <c r="C35" t="s">
+    <row r="35" customHeight="1" spans="3:7">
+      <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="3:7">
-      <c r="C36" t="s">
+    <row r="36" customHeight="1" spans="3:7">
+      <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:7">
-      <c r="C37" t="s">
+    <row r="37" customHeight="1" spans="3:7">
+      <c r="C37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:7">
-      <c r="C38" t="s">
+    <row r="38" customHeight="1" spans="3:7">
+      <c r="C38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:7">
-      <c r="C39" t="s">
+    <row r="39" customHeight="1" spans="3:7">
+      <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" ht="24" customHeight="1" spans="3:7">
-      <c r="C40" t="s">
+    <row r="40" customHeight="1" spans="3:7">
+      <c r="C40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" ht="24" customHeight="1" spans="3:7">
-      <c r="C41" t="s">
+    <row r="41" customHeight="1" spans="3:7">
+      <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" ht="24" customHeight="1" spans="3:7">
-      <c r="C42" t="s">
+    <row r="42" customHeight="1" spans="3:7">
+      <c r="C42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:7">
-      <c r="C43" t="s">
+    <row r="43" customHeight="1" spans="3:7">
+      <c r="C43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:7">
-      <c r="C44" t="s">
+    <row r="44" customHeight="1" spans="3:7">
+      <c r="C44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:7">
-      <c r="C45" t="s">
+    <row r="45" customHeight="1" spans="3:7">
+      <c r="C45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" ht="24" customHeight="1" spans="3:7">
-      <c r="C46" t="s">
+    <row r="46" customHeight="1" spans="3:7">
+      <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" ht="24" customHeight="1" spans="3:7">
-      <c r="C47" t="s">
+    <row r="47" customHeight="1" spans="3:7">
+      <c r="C47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" ht="24" customHeight="1" spans="3:7">
-      <c r="C48" t="s">
+    <row r="48" customHeight="1" spans="3:7">
+      <c r="C48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" ht="24" customHeight="1" spans="3:7">
-      <c r="C49" t="s">
+    <row r="49" customHeight="1" spans="3:7">
+      <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" ht="24" customHeight="1" spans="3:7">
-      <c r="C50" t="s">
+    <row r="50" customHeight="1" spans="3:7">
+      <c r="C50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" ht="24" customHeight="1" spans="3:7">
-      <c r="C51" t="s">
+    <row r="51" customHeight="1" spans="3:7">
+      <c r="C51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" ht="24" customHeight="1" spans="3:7">
-      <c r="C52" t="s">
+    <row r="52" customHeight="1" spans="3:7">
+      <c r="C52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" ht="24" customHeight="1" spans="3:7">
-      <c r="C53" t="s">
+    <row r="53" customHeight="1" spans="3:7">
+      <c r="C53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" ht="24" customHeight="1" spans="3:7">
-      <c r="C54" t="s">
+    <row r="54" customHeight="1" spans="3:7">
+      <c r="C54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" ht="24" customHeight="1" spans="3:7">
-      <c r="C55" t="s">
+    <row r="55" customHeight="1" spans="3:7">
+      <c r="C55" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" ht="24" customHeight="1" spans="3:7">
-      <c r="C56" t="s">
+    <row r="56" customHeight="1" spans="3:7">
+      <c r="C56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" ht="24" customHeight="1" spans="3:7">
-      <c r="C57" t="s">
+    <row r="57" customHeight="1" spans="3:7">
+      <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" ht="24" customHeight="1" spans="3:7">
-      <c r="C58" t="s">
+    <row r="58" customHeight="1" spans="3:7">
+      <c r="C58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" ht="24" customHeight="1" spans="3:7">
-      <c r="C59" t="s">
+    <row r="59" customHeight="1" spans="3:7">
+      <c r="C59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" ht="24" customHeight="1" spans="3:7">
-      <c r="C60" t="s">
+    <row r="60" customHeight="1" spans="3:7">
+      <c r="C60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" ht="24" customHeight="1" spans="3:7">
-      <c r="C61" t="s">
+    <row r="61" customHeight="1" spans="3:7">
+      <c r="C61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" ht="24" customHeight="1" spans="3:7">
-      <c r="C62" t="s">
+    <row r="62" customHeight="1" spans="3:7">
+      <c r="C62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" ht="24" customHeight="1" spans="3:7">
-      <c r="C63" t="s">
+    <row r="63" customHeight="1" spans="3:7">
+      <c r="C63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" ht="24" customHeight="1" spans="3:7">
-      <c r="C64" t="s">
+    <row r="64" customHeight="1" spans="3:7">
+      <c r="C64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" ht="24" customHeight="1" spans="3:7">
-      <c r="C65" t="s">
+    <row r="65" customHeight="1" spans="3:7">
+      <c r="C65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" ht="24" customHeight="1" spans="3:7">
-      <c r="C66" t="s">
+    <row r="66" customHeight="1" spans="3:7">
+      <c r="C66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" ht="24" customHeight="1" spans="3:7">
-      <c r="C67" t="s">
+    <row r="67" customHeight="1" spans="3:7">
+      <c r="C67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" ht="24" customHeight="1" spans="3:7">
-      <c r="C68" t="s">
+    <row r="68" customHeight="1" spans="3:7">
+      <c r="C68" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" ht="24" customHeight="1" spans="3:7">
-      <c r="C69" t="s">
+    <row r="69" customHeight="1" spans="3:7">
+      <c r="C69" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="F69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" ht="24" customHeight="1" spans="3:7">
-      <c r="C70" t="s">
+    <row r="70" customHeight="1" spans="3:7">
+      <c r="C70" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" ht="24" customHeight="1" spans="3:7">
-      <c r="C71" t="s">
+    <row r="71" customHeight="1" spans="3:7">
+      <c r="C71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" ht="24" customHeight="1" spans="3:7">
-      <c r="C72" t="s">
+    <row r="72" customHeight="1" spans="3:7">
+      <c r="C72" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" ht="24" customHeight="1" spans="3:7">
-      <c r="C73" t="s">
+    <row r="73" customHeight="1" spans="3:7">
+      <c r="C73" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" ht="24" customHeight="1" spans="3:7">
-      <c r="C74" t="s">
+    <row r="74" customHeight="1" spans="3:7">
+      <c r="C74" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" ht="24" customHeight="1" spans="3:7">
-      <c r="C75" t="s">
+    <row r="75" customHeight="1" spans="3:7">
+      <c r="C75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" ht="24" customHeight="1" spans="3:7">
-      <c r="C76" t="s">
+    <row r="76" customHeight="1" spans="3:7">
+      <c r="C76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" ht="24" customHeight="1" spans="3:7">
-      <c r="C77" t="s">
+    <row r="77" customHeight="1" spans="3:7">
+      <c r="C77" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" ht="24" customHeight="1" spans="3:7">
-      <c r="C78" t="s">
+    <row r="78" customHeight="1" spans="3:7">
+      <c r="C78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" ht="24" customHeight="1" spans="3:7">
-      <c r="C79" t="s">
+    <row r="79" customHeight="1" spans="3:7">
+      <c r="C79" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" ht="24" customHeight="1" spans="3:7">
-      <c r="C80" t="s">
+    <row r="80" customHeight="1" spans="3:7">
+      <c r="C80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" ht="24" customHeight="1" spans="3:7">
-      <c r="C81" t="s">
+    <row r="81" customHeight="1" spans="3:7">
+      <c r="C81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" ht="24" customHeight="1" spans="3:7">
-      <c r="C82" t="s">
+    <row r="82" customHeight="1" spans="3:7">
+      <c r="C82" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" ht="24" customHeight="1" spans="3:7">
-      <c r="C83" t="s">
+    <row r="83" customHeight="1" spans="3:7">
+      <c r="C83" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" ht="24" customHeight="1" spans="3:7">
-      <c r="C84" t="s">
+    <row r="84" customHeight="1" spans="3:7">
+      <c r="C84" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" ht="24" customHeight="1" spans="3:7">
-      <c r="C85" t="s">
+    <row r="85" customHeight="1" spans="3:7">
+      <c r="C85" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" ht="24" customHeight="1" spans="3:7">
-      <c r="C86" t="s">
+    <row r="86" customHeight="1" spans="3:7">
+      <c r="C86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" ht="24" customHeight="1" spans="3:7">
-      <c r="C87" t="s">
+    <row r="87" customHeight="1" spans="3:7">
+      <c r="C87" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" ht="24" customHeight="1" spans="3:7">
-      <c r="C88" t="s">
+    <row r="88" customHeight="1" spans="3:7">
+      <c r="C88" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" ht="24" customHeight="1" spans="3:7">
-      <c r="C89" t="s">
+    <row r="89" customHeight="1" spans="3:7">
+      <c r="C89" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" ht="24" customHeight="1" spans="3:7">
-      <c r="C90" t="s">
+    <row r="90" customHeight="1" spans="3:7">
+      <c r="C90" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" ht="24" customHeight="1" spans="3:7">
-      <c r="C91" t="s">
+    <row r="91" customHeight="1" spans="3:7">
+      <c r="C91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" ht="24" customHeight="1" spans="3:7">
-      <c r="C92" t="s">
+    <row r="92" customHeight="1" spans="3:7">
+      <c r="C92" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="93" ht="24" customHeight="1" spans="3:7">
-      <c r="C93" t="s">
+    <row r="93" customHeight="1" spans="3:7">
+      <c r="C93" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" ht="24" customHeight="1" spans="3:7">
-      <c r="C94" t="s">
+    <row r="94" customHeight="1" spans="3:7">
+      <c r="C94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="95" ht="24" customHeight="1" spans="3:7">
-      <c r="C95" t="s">
+    <row r="95" customHeight="1" spans="3:7">
+      <c r="C95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="F95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" ht="24" customHeight="1" spans="3:7">
-      <c r="C96" t="s">
+    <row r="96" customHeight="1" spans="3:7">
+      <c r="C96" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" ht="24" customHeight="1" spans="3:7">
-      <c r="C97" t="s">
+    <row r="97" customHeight="1" spans="3:7">
+      <c r="C97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" ht="24" customHeight="1" spans="3:7">
-      <c r="C98" t="s">
+    <row r="98" customHeight="1" spans="3:7">
+      <c r="C98" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="F98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99" ht="24" customHeight="1" spans="3:7">
-      <c r="C99" t="s">
+    <row r="99" customHeight="1" spans="3:7">
+      <c r="C99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" ht="24" customHeight="1" spans="3:7">
-      <c r="C100" t="s">
+    <row r="100" customHeight="1" spans="3:7">
+      <c r="C100" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="F100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" ht="24" customHeight="1" spans="3:7">
-      <c r="C101" t="s">
+    <row r="101" customHeight="1" spans="3:7">
+      <c r="C101" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" ht="24" customHeight="1" spans="3:7">
-      <c r="C102" t="s">
+    <row r="102" customHeight="1" spans="3:7">
+      <c r="C102" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="F102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" ht="24" customHeight="1" spans="3:7">
-      <c r="C103" t="s">
+    <row r="103" customHeight="1" spans="3:7">
+      <c r="C103" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="F103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" ht="24" customHeight="1" spans="3:7">
-      <c r="C104" t="s">
+    <row r="104" customHeight="1" spans="3:7">
+      <c r="C104" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105" ht="24" customHeight="1" spans="3:7">
-      <c r="C105" t="s">
+    <row r="105" customHeight="1" spans="3:7">
+      <c r="C105" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="F105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" ht="24" customHeight="1" spans="3:7">
-      <c r="C106" t="s">
+    <row r="106" customHeight="1" spans="3:7">
+      <c r="C106" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107" ht="24" customHeight="1" spans="3:7">
-      <c r="C107" t="s">
+    <row r="107" customHeight="1" spans="3:7">
+      <c r="C107" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" ht="24" customHeight="1" spans="3:7">
-      <c r="C108" t="s">
+    <row r="108" customHeight="1" spans="3:7">
+      <c r="C108" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="F108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109" ht="24" customHeight="1" spans="3:7">
-      <c r="C109" t="s">
+    <row r="109" customHeight="1" spans="3:7">
+      <c r="C109" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="F109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110" ht="24" customHeight="1" spans="3:7">
-      <c r="C110" t="s">
+    <row r="110" customHeight="1" spans="3:7">
+      <c r="C110" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" ht="24" customHeight="1" spans="3:7">
-      <c r="C111" t="s">
+    <row r="111" customHeight="1" spans="3:7">
+      <c r="C111" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112" ht="24" customHeight="1" spans="3:7">
-      <c r="C112" t="s">
+    <row r="112" customHeight="1" spans="3:7">
+      <c r="C112" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="F112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" ht="24" customHeight="1" spans="3:7">
-      <c r="C113" t="s">
+    <row r="113" customHeight="1" spans="3:7">
+      <c r="C113" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="F113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" ht="24" customHeight="1" spans="3:7">
-      <c r="C114" t="s">
+    <row r="114" customHeight="1" spans="3:7">
+      <c r="C114" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="F114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115" ht="24" customHeight="1" spans="3:7">
-      <c r="C115" t="s">
+    <row r="115" customHeight="1" spans="3:7">
+      <c r="C115" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" ht="24" customHeight="1" spans="3:7">
-      <c r="C116" t="s">
+    <row r="116" customHeight="1" spans="3:7">
+      <c r="C116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" ht="24" customHeight="1" spans="3:7">
-      <c r="C117" t="s">
+    <row r="117" customHeight="1" spans="3:7">
+      <c r="C117" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="F117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" ht="24" customHeight="1" spans="3:7">
-      <c r="C118" t="s">
+    <row r="118" customHeight="1" spans="3:7">
+      <c r="C118" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="F118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" ht="24" customHeight="1" spans="3:7">
-      <c r="C119" t="s">
+    <row r="119" customHeight="1" spans="3:7">
+      <c r="C119" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="F119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" ht="24" customHeight="1" spans="3:7">
-      <c r="C120" t="s">
+    <row r="120" customHeight="1" spans="3:7">
+      <c r="C120" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="121" ht="24" customHeight="1" spans="3:7">
-      <c r="C121" t="s">
+    <row r="121" customHeight="1" spans="3:7">
+      <c r="C121" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="122" ht="24" customHeight="1" spans="3:7">
-      <c r="C122" t="s">
+    <row r="122" customHeight="1" spans="3:7">
+      <c r="C122" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="F122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="123" ht="24" customHeight="1" spans="3:7">
-      <c r="C123" t="s">
+    <row r="123" customHeight="1" spans="3:7">
+      <c r="C123" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="F123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="124" ht="24" customHeight="1" spans="3:7">
-      <c r="C124" t="s">
+    <row r="124" customHeight="1" spans="3:7">
+      <c r="C124" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="F124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="125" ht="24" customHeight="1" spans="3:7">
-      <c r="C125" t="s">
+    <row r="125" customHeight="1" spans="3:7">
+      <c r="C125" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="F125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" ht="24" customHeight="1" spans="3:7">
-      <c r="C126" t="s">
+    <row r="126" customHeight="1" spans="3:7">
+      <c r="C126" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="127" ht="24" customHeight="1" spans="3:7">
-      <c r="C127" t="s">
+    <row r="127" customHeight="1" spans="3:7">
+      <c r="C127" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="128" ht="24" customHeight="1" spans="3:7">
-      <c r="C128" t="s">
+    <row r="128" customHeight="1" spans="3:7">
+      <c r="C128" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="F128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="129" ht="24" customHeight="1" spans="3:7">
-      <c r="C129" t="s">
+    <row r="129" customHeight="1" spans="3:7">
+      <c r="C129" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="F129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="130" ht="24" customHeight="1" spans="3:7">
-      <c r="C130" t="s">
+    <row r="130" customHeight="1" spans="3:7">
+      <c r="C130" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="F130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="131" ht="24" customHeight="1" spans="3:7">
-      <c r="C131" t="s">
+    <row r="131" customHeight="1" spans="3:7">
+      <c r="C131" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="132" ht="24" customHeight="1" spans="3:7">
-      <c r="C132" t="s">
+    <row r="132" customHeight="1" spans="3:7">
+      <c r="C132" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="F132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="133" ht="24" customHeight="1" spans="3:7">
-      <c r="C133" t="s">
+    <row r="133" customHeight="1" spans="3:7">
+      <c r="C133" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="F133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="134" ht="24" customHeight="1" spans="3:7">
-      <c r="C134" t="s">
+    <row r="134" customHeight="1" spans="3:7">
+      <c r="C134" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="F134" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="135" ht="24" customHeight="1" spans="3:7">
-      <c r="C135" t="s">
+    <row r="135" customHeight="1" spans="3:7">
+      <c r="C135" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="F135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="136" ht="24" customHeight="1" spans="3:7">
-      <c r="C136" t="s">
+    <row r="136" customHeight="1" spans="3:7">
+      <c r="C136" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="137" ht="24" customHeight="1" spans="3:7">
-      <c r="C137" t="s">
+    <row r="137" customHeight="1" spans="3:7">
+      <c r="C137" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="F137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="138" ht="24" customHeight="1" spans="3:7">
-      <c r="C138" t="s">
+    <row r="138" customHeight="1" spans="3:7">
+      <c r="C138" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="F138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="139" ht="24" customHeight="1" spans="3:7">
-      <c r="C139" t="s">
+    <row r="139" customHeight="1" spans="3:7">
+      <c r="C139" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="F139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" ht="24" customHeight="1" spans="3:7">
-      <c r="C140" t="s">
+    <row r="140" customHeight="1" spans="3:7">
+      <c r="C140" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="F140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="141" ht="24" customHeight="1" spans="3:7">
-      <c r="C141" t="s">
+    <row r="141" customHeight="1" spans="3:7">
+      <c r="C141" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="142" ht="24" customHeight="1" spans="3:7">
-      <c r="C142" t="s">
+    <row r="142" customHeight="1" spans="3:7">
+      <c r="C142" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="F142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="143" ht="24" customHeight="1" spans="3:7">
-      <c r="C143" t="s">
+    <row r="143" customHeight="1" spans="3:7">
+      <c r="C143" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="F143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="144" ht="24" customHeight="1" spans="3:7">
-      <c r="C144" t="s">
+    <row r="144" customHeight="1" spans="3:7">
+      <c r="C144" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="F144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="145" ht="24" customHeight="1" spans="3:7">
-      <c r="C145" t="s">
+    <row r="145" customHeight="1" spans="3:7">
+      <c r="C145" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="F145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="146" ht="24" customHeight="1" spans="3:7">
-      <c r="C146" t="s">
+    <row r="146" customHeight="1" spans="3:7">
+      <c r="C146" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="147" ht="24" customHeight="1" spans="3:7">
-      <c r="C147" t="s">
+    <row r="147" customHeight="1" spans="3:7">
+      <c r="C147" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="F147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="148" ht="24" customHeight="1" spans="3:7">
-      <c r="C148" t="s">
+    <row r="148" customHeight="1" spans="3:7">
+      <c r="C148" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="F148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="149" ht="24" customHeight="1" spans="3:7">
-      <c r="C149" t="s">
+    <row r="149" customHeight="1" spans="3:7">
+      <c r="C149" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="F149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="150" ht="24" customHeight="1" spans="3:7">
-      <c r="C150" t="s">
+    <row r="150" customHeight="1" spans="3:7">
+      <c r="C150" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="F150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="151" ht="24" customHeight="1" spans="3:7">
-      <c r="C151" t="s">
+    <row r="151" customHeight="1" spans="3:7">
+      <c r="C151" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="152" ht="24" customHeight="1" spans="3:7">
-      <c r="C152" t="s">
+    <row r="152" customHeight="1" spans="3:7">
+      <c r="C152" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="F152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="153" ht="24" customHeight="1" spans="3:7">
-      <c r="C153" t="s">
+    <row r="153" customHeight="1" spans="3:7">
+      <c r="C153" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="F153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="154" ht="24" customHeight="1" spans="3:7">
-      <c r="C154" t="s">
+    <row r="154" customHeight="1" spans="3:7">
+      <c r="C154" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="F154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="155" ht="24" customHeight="1" spans="3:7">
-      <c r="C155" t="s">
+    <row r="155" customHeight="1" spans="3:7">
+      <c r="C155" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="F155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="156" ht="24" customHeight="1" spans="3:7">
-      <c r="C156" t="s">
+    <row r="156" customHeight="1" spans="3:7">
+      <c r="C156" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="157" ht="24" customHeight="1" spans="3:7">
-      <c r="C157" t="s">
+    <row r="157" customHeight="1" spans="3:7">
+      <c r="C157" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="F157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="158" ht="24" customHeight="1" spans="3:7">
-      <c r="C158" t="s">
+    <row r="158" customHeight="1" spans="3:7">
+      <c r="C158" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="F158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="159" ht="24" customHeight="1" spans="3:7">
-      <c r="C159" t="s">
+    <row r="159" customHeight="1" spans="3:7">
+      <c r="C159" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="F159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="160" ht="24" customHeight="1" spans="3:7">
-      <c r="C160" t="s">
+    <row r="160" customHeight="1" spans="3:7">
+      <c r="C160" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="F160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="161" ht="24" customHeight="1" spans="3:7">
-      <c r="C161" t="s">
+    <row r="161" customHeight="1" spans="3:7">
+      <c r="C161" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="162" ht="24" customHeight="1" spans="3:7">
-      <c r="C162" t="s">
+    <row r="162" customHeight="1" spans="3:7">
+      <c r="C162" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="F162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="163" ht="24" customHeight="1" spans="3:7">
-      <c r="C163" t="s">
+    <row r="163" customHeight="1" spans="3:7">
+      <c r="C163" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="F163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="164" ht="24" customHeight="1" spans="3:7">
-      <c r="C164" t="s">
+    <row r="164" customHeight="1" spans="3:7">
+      <c r="C164" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="F164" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="165" ht="24" customHeight="1" spans="3:7">
-      <c r="C165" t="s">
+    <row r="165" customHeight="1" spans="3:7">
+      <c r="C165" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F165" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="F165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="166" ht="24" customHeight="1" spans="3:7">
-      <c r="C166" t="s">
+    <row r="166" customHeight="1" spans="3:7">
+      <c r="C166" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="167" ht="24" customHeight="1" spans="3:7">
-      <c r="C167" t="s">
+    <row r="167" customHeight="1" spans="3:7">
+      <c r="C167" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="F167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="168" ht="24" customHeight="1" spans="3:7">
-      <c r="C168" t="s">
+    <row r="168" customHeight="1" spans="3:7">
+      <c r="C168" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="F168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="169" ht="24" customHeight="1" spans="3:7">
-      <c r="C169" t="s">
+    <row r="169" customHeight="1" spans="3:7">
+      <c r="C169" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="F169" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="170" ht="24" customHeight="1" spans="3:7">
-      <c r="C170" t="s">
+    <row r="170" customHeight="1" spans="3:7">
+      <c r="C170" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="F170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="171" ht="24" customHeight="1" spans="3:7">
-      <c r="C171" t="s">
+    <row r="171" customHeight="1" spans="3:7">
+      <c r="C171" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="172" ht="24" customHeight="1" spans="3:7">
-      <c r="C172" t="s">
+    <row r="172" customHeight="1" spans="3:7">
+      <c r="C172" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="F172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="173" ht="24" customHeight="1" spans="3:7">
-      <c r="C173" t="s">
+    <row r="173" customHeight="1" spans="3:7">
+      <c r="C173" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="F173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="174" ht="24" customHeight="1" spans="3:7">
-      <c r="C174" t="s">
+    <row r="174" customHeight="1" spans="3:7">
+      <c r="C174" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="F174" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="175" ht="24" customHeight="1" spans="3:7">
-      <c r="C175" t="s">
+    <row r="175" customHeight="1" spans="3:7">
+      <c r="C175" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="F175" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="176" ht="24" customHeight="1" spans="3:7">
-      <c r="C176" t="s">
+    <row r="176" customHeight="1" spans="3:7">
+      <c r="C176" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="177" ht="24" customHeight="1" spans="3:7">
-      <c r="C177" t="s">
+    <row r="177" customHeight="1" spans="3:7">
+      <c r="C177" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="F177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="178" ht="24" customHeight="1" spans="3:7">
-      <c r="C178" t="s">
+    <row r="178" customHeight="1" spans="3:7">
+      <c r="C178" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="F178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="179" ht="24" customHeight="1" spans="3:7">
-      <c r="C179" t="s">
+    <row r="179" customHeight="1" spans="3:7">
+      <c r="C179" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="F179" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="180" ht="24" customHeight="1" spans="3:7">
-      <c r="C180" t="s">
+    <row r="180" customHeight="1" spans="3:7">
+      <c r="C180" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
+      <c r="F180" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="181" ht="24" customHeight="1" spans="3:7">
-      <c r="C181" t="s">
+    <row r="181" customHeight="1" spans="3:7">
+      <c r="C181" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="182" ht="24" customHeight="1" spans="3:7">
-      <c r="C182" t="s">
+    <row r="182" customHeight="1" spans="3:7">
+      <c r="C182" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s">
+      <c r="F182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="183" ht="24" customHeight="1" spans="3:7">
-      <c r="C183" t="s">
+    <row r="183" customHeight="1" spans="3:7">
+      <c r="C183" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="F183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="184" ht="24" customHeight="1" spans="3:7">
-      <c r="C184" t="s">
+    <row r="184" customHeight="1" spans="3:7">
+      <c r="C184" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F184" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="F184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="185" ht="24" customHeight="1" spans="3:7">
-      <c r="C185" t="s">
+    <row r="185" customHeight="1" spans="3:7">
+      <c r="C185" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
+      <c r="F185" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="186" ht="24" customHeight="1" spans="3:7">
-      <c r="C186" t="s">
+    <row r="186" customHeight="1" spans="3:7">
+      <c r="C186" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="187" ht="24" customHeight="1" spans="3:7">
-      <c r="C187" t="s">
+    <row r="187" customHeight="1" spans="3:7">
+      <c r="C187" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="F187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="188" ht="24" customHeight="1" spans="3:7">
-      <c r="C188" t="s">
+    <row r="188" customHeight="1" spans="3:7">
+      <c r="C188" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="F188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="189" ht="24" customHeight="1" spans="3:7">
-      <c r="C189" t="s">
+    <row r="189" customHeight="1" spans="3:7">
+      <c r="C189" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="F189" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="190" ht="24" customHeight="1" spans="3:7">
-      <c r="C190" t="s">
+    <row r="190" customHeight="1" spans="3:7">
+      <c r="C190" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F190" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="F190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="191" ht="24" customHeight="1" spans="3:7">
-      <c r="C191" t="s">
+    <row r="191" customHeight="1" spans="3:7">
+      <c r="C191" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="192" ht="24" customHeight="1" spans="3:7">
-      <c r="C192" t="s">
+    <row r="192" customHeight="1" spans="3:7">
+      <c r="C192" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s">
+      <c r="F192" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="193" ht="24" customHeight="1" spans="3:7">
-      <c r="C193" t="s">
+    <row r="193" customHeight="1" spans="3:7">
+      <c r="C193" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="F193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="194" ht="24" customHeight="1" spans="3:7">
-      <c r="C194" t="s">
+    <row r="194" customHeight="1" spans="3:7">
+      <c r="C194" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F194" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="F194" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="195" ht="24" customHeight="1" spans="3:7">
-      <c r="C195" t="s">
+    <row r="195" customHeight="1" spans="3:7">
+      <c r="C195" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
+      <c r="F195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="196" ht="24" customHeight="1" spans="3:7">
-      <c r="C196" t="s">
+    <row r="196" customHeight="1" spans="3:7">
+      <c r="C196" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="197" ht="24" customHeight="1" spans="3:7">
-      <c r="C197" t="s">
+    <row r="197" customHeight="1" spans="3:7">
+      <c r="C197" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="F197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="198" ht="24" customHeight="1" spans="3:7">
-      <c r="C198" t="s">
+    <row r="198" customHeight="1" spans="3:7">
+      <c r="C198" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s">
+      <c r="F198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="199" ht="24" customHeight="1" spans="3:7">
-      <c r="C199" t="s">
+    <row r="199" customHeight="1" spans="3:7">
+      <c r="C199" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="F199" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="200" ht="24" customHeight="1" spans="3:7">
-      <c r="C200" t="s">
+    <row r="200" customHeight="1" spans="3:7">
+      <c r="C200" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="F200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="201" ht="24" customHeight="1" spans="3:7">
-      <c r="C201" t="s">
+    <row r="201" customHeight="1" spans="3:7">
+      <c r="C201" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="202" ht="24" customHeight="1" spans="3:7">
-      <c r="C202" t="s">
+    <row r="202" customHeight="1" spans="3:7">
+      <c r="C202" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" t="s">
+      <c r="F202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="203" ht="24" customHeight="1" spans="3:7">
-      <c r="C203" t="s">
+    <row r="203" customHeight="1" spans="3:7">
+      <c r="C203" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="F203" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="204" ht="24" customHeight="1" spans="3:7">
-      <c r="C204" t="s">
+    <row r="204" customHeight="1" spans="3:7">
+      <c r="C204" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F204" t="s">
-        <v>22</v>
-      </c>
-      <c r="G204" t="s">
+      <c r="F204" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="205" ht="24" customHeight="1" spans="3:7">
-      <c r="C205" t="s">
+    <row r="205" customHeight="1" spans="3:7">
+      <c r="C205" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s">
+      <c r="F205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="206" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" t="s">
+    <row r="206" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H206" s="1"/>
-    </row>
-    <row r="207" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" t="s">
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F207" t="s">
-        <v>16</v>
-      </c>
-      <c r="G207" t="s">
+      <c r="F207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" t="s">
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F208" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" t="s">
+      <c r="F208" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H208" s="1"/>
-    </row>
-    <row r="209" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" t="s">
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F209" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" t="s">
+      <c r="F209" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" t="s">
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F210" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" t="s">
+      <c r="F210" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H210" s="1"/>
-    </row>
-    <row r="211" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" t="s">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" t="s">
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s">
+      <c r="F212" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" t="s">
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F213" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" t="s">
+      <c r="F213" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" t="s">
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" t="s">
+      <c r="F214" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H214" s="1"/>
-    </row>
-    <row r="215" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" t="s">
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F215" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" t="s">
+      <c r="F215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" t="s">
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" t="s">
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F217" t="s">
-        <v>16</v>
-      </c>
-      <c r="G217" t="s">
+      <c r="F217" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" t="s">
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F218" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" t="s">
+      <c r="F218" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H218" s="1"/>
-    </row>
-    <row r="219" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" t="s">
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F219" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" t="s">
+      <c r="F219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" t="s">
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F220" t="s">
-        <v>22</v>
-      </c>
-      <c r="G220" t="s">
+      <c r="F220" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H220" s="1"/>
-    </row>
-    <row r="221" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" t="s">
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" t="s">
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F222" t="s">
-        <v>16</v>
-      </c>
-      <c r="G222" t="s">
+      <c r="F222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H222" s="1"/>
-    </row>
-    <row r="223" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" t="s">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F223" t="s">
-        <v>16</v>
-      </c>
-      <c r="G223" t="s">
+      <c r="F223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H223" s="1"/>
-    </row>
-    <row r="224" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" t="s">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" t="s">
+      <c r="F224" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H224" s="1"/>
-    </row>
-    <row r="225" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" t="s">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F225" t="s">
-        <v>22</v>
-      </c>
-      <c r="G225" t="s">
+      <c r="F225" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H225" s="1"/>
-    </row>
-    <row r="226" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" t="s">
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H226" s="1"/>
-    </row>
-    <row r="227" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" t="s">
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F227" t="s">
-        <v>16</v>
-      </c>
-      <c r="G227" t="s">
+      <c r="F227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" t="s">
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F228" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" t="s">
+      <c r="F228" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" t="s">
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F229" t="s">
-        <v>22</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="F229" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" t="s">
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F230" t="s">
-        <v>22</v>
-      </c>
-      <c r="G230" t="s">
+      <c r="F230" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" t="s">
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H231" s="1"/>
-    </row>
-    <row r="232" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" t="s">
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F232" t="s">
-        <v>16</v>
-      </c>
-      <c r="G232" t="s">
+      <c r="F232" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H232" s="1"/>
-    </row>
-    <row r="233" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" t="s">
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F233" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" t="s">
+      <c r="F233" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H233" s="1"/>
-    </row>
-    <row r="234" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" t="s">
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F234" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" t="s">
+      <c r="F234" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H234" s="1"/>
-    </row>
-    <row r="235" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" t="s">
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F235" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" t="s">
+      <c r="F235" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H235" s="1"/>
-    </row>
-    <row r="236" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" t="s">
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H236" s="1"/>
-    </row>
-    <row r="237" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" t="s">
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F237" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" t="s">
+      <c r="F237" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H237" s="1"/>
-    </row>
-    <row r="238" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" t="s">
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F238" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" t="s">
+      <c r="F238" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H238" s="1"/>
-    </row>
-    <row r="239" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" t="s">
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F239" t="s">
-        <v>22</v>
-      </c>
-      <c r="G239" t="s">
+      <c r="F239" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H239" s="1"/>
-    </row>
-    <row r="240" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" t="s">
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F240" t="s">
-        <v>22</v>
-      </c>
-      <c r="G240" t="s">
+      <c r="F240" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H240" s="1"/>
-    </row>
-    <row r="241" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" t="s">
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H241" s="1"/>
-    </row>
-    <row r="242" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" t="s">
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F242" t="s">
-        <v>16</v>
-      </c>
-      <c r="G242" t="s">
+      <c r="F242" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H242" s="1"/>
-    </row>
-    <row r="243" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" t="s">
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F243" t="s">
-        <v>16</v>
-      </c>
-      <c r="G243" t="s">
+      <c r="F243" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H243" s="1"/>
-    </row>
-    <row r="244" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" t="s">
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F244" t="s">
-        <v>22</v>
-      </c>
-      <c r="G244" t="s">
+      <c r="F244" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H244" s="1"/>
-    </row>
-    <row r="245" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" t="s">
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F245" t="s">
-        <v>22</v>
-      </c>
-      <c r="G245" t="s">
+      <c r="F245" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H245" s="1"/>
-    </row>
-    <row r="246" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" t="s">
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H246" s="1"/>
-    </row>
-    <row r="247" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" t="s">
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F247" t="s">
-        <v>16</v>
-      </c>
-      <c r="G247" t="s">
+      <c r="F247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H247" s="1"/>
-    </row>
-    <row r="248" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" t="s">
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F248" t="s">
-        <v>16</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="F248" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H248" s="1"/>
-    </row>
-    <row r="249" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" t="s">
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F249" t="s">
-        <v>22</v>
-      </c>
-      <c r="G249" t="s">
+      <c r="F249" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H249" s="1"/>
-    </row>
-    <row r="250" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" t="s">
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F250" t="s">
-        <v>22</v>
-      </c>
-      <c r="G250" t="s">
+      <c r="F250" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H250" s="1"/>
-    </row>
-    <row r="251" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" t="s">
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H251" s="1"/>
-    </row>
-    <row r="252" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" t="s">
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F252" t="s">
-        <v>16</v>
-      </c>
-      <c r="G252" t="s">
+      <c r="F252" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H252" s="1"/>
-    </row>
-    <row r="253" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" t="s">
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F253" t="s">
-        <v>16</v>
-      </c>
-      <c r="G253" t="s">
+      <c r="F253" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H253" s="1"/>
-    </row>
-    <row r="254" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" t="s">
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F254" t="s">
-        <v>22</v>
-      </c>
-      <c r="G254" t="s">
+      <c r="F254" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H254" s="1"/>
-    </row>
-    <row r="255" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" t="s">
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F255" t="s">
-        <v>22</v>
-      </c>
-      <c r="G255" t="s">
+      <c r="F255" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H255" s="1"/>
-    </row>
-    <row r="256" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="3" t="s">
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H256" s="1"/>
-    </row>
-    <row r="257" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="3" t="s">
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F257" t="s">
-        <v>16</v>
-      </c>
-      <c r="G257" t="s">
+      <c r="F257" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H257" s="1"/>
-    </row>
-    <row r="258" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="3" t="s">
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F258" t="s">
-        <v>16</v>
-      </c>
-      <c r="G258" t="s">
+      <c r="F258" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H258" s="1"/>
-    </row>
-    <row r="259" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="3" t="s">
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F259" t="s">
-        <v>22</v>
-      </c>
-      <c r="G259" t="s">
+      <c r="F259" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H259" s="1"/>
-    </row>
-    <row r="260" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="3" t="s">
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F260" t="s">
-        <v>22</v>
-      </c>
-      <c r="G260" t="s">
+      <c r="F260" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H260" s="1"/>
-    </row>
-    <row r="261" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="3" t="s">
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H261" s="1"/>
-    </row>
-    <row r="262" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="3" t="s">
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F262" t="s">
-        <v>16</v>
-      </c>
-      <c r="G262" t="s">
+      <c r="F262" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H262" s="1"/>
-    </row>
-    <row r="263" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="3" t="s">
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F263" t="s">
-        <v>16</v>
-      </c>
-      <c r="G263" t="s">
+      <c r="F263" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H263" s="1"/>
-    </row>
-    <row r="264" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="3" t="s">
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F264" t="s">
-        <v>22</v>
-      </c>
-      <c r="G264" t="s">
+      <c r="F264" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H264" s="1"/>
-    </row>
-    <row r="265" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="3" t="s">
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F265" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" t="s">
+      <c r="F265" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H265" s="1"/>
-    </row>
-    <row r="266" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="3" t="s">
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H266" s="1"/>
-    </row>
-    <row r="267" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="3" t="s">
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F267" t="s">
-        <v>16</v>
-      </c>
-      <c r="G267" t="s">
+      <c r="F267" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H267" s="1"/>
-    </row>
-    <row r="268" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="3" t="s">
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F268" t="s">
-        <v>16</v>
-      </c>
-      <c r="G268" t="s">
+      <c r="F268" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H268" s="1"/>
-    </row>
-    <row r="269" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="3" t="s">
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F269" t="s">
-        <v>22</v>
-      </c>
-      <c r="G269" t="s">
+      <c r="F269" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H269" s="1"/>
-    </row>
-    <row r="270" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="3" t="s">
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F270" t="s">
-        <v>22</v>
-      </c>
-      <c r="G270" t="s">
+      <c r="F270" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H270" s="1"/>
-    </row>
-    <row r="271" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="3" t="s">
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H271" s="1"/>
-    </row>
-    <row r="272" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="3" t="s">
+      <c r="H271" s="2"/>
+    </row>
+    <row r="272" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F272" t="s">
-        <v>16</v>
-      </c>
-      <c r="G272" t="s">
+      <c r="F272" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H272" s="1"/>
-    </row>
-    <row r="273" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="3" t="s">
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F273" t="s">
-        <v>16</v>
-      </c>
-      <c r="G273" t="s">
+      <c r="F273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H273" s="1"/>
-    </row>
-    <row r="274" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="3" t="s">
+      <c r="H273" s="2"/>
+    </row>
+    <row r="274" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F274" t="s">
-        <v>22</v>
-      </c>
-      <c r="G274" t="s">
+      <c r="F274" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H274" s="1"/>
-    </row>
-    <row r="275" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="3" t="s">
+      <c r="H274" s="2"/>
+    </row>
+    <row r="275" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F275" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" t="s">
+      <c r="F275" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G275" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H275" s="1"/>
-    </row>
-    <row r="276" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="3" t="s">
+      <c r="H275" s="2"/>
+    </row>
+    <row r="276" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F276" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H276" s="1"/>
-    </row>
-    <row r="277" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="3" t="s">
+      <c r="H276" s="2"/>
+    </row>
+    <row r="277" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F277" t="s">
-        <v>16</v>
-      </c>
-      <c r="G277" t="s">
+      <c r="F277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H277" s="1"/>
-    </row>
-    <row r="278" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="3" t="s">
+      <c r="H277" s="2"/>
+    </row>
+    <row r="278" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F278" t="s">
-        <v>16</v>
-      </c>
-      <c r="G278" t="s">
+      <c r="F278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H278" s="1"/>
-    </row>
-    <row r="279" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="3" t="s">
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F279" t="s">
-        <v>22</v>
-      </c>
-      <c r="G279" t="s">
+      <c r="F279" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H279" s="1"/>
-    </row>
-    <row r="280" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="3" t="s">
+      <c r="H279" s="2"/>
+    </row>
+    <row r="280" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F280" t="s">
-        <v>22</v>
-      </c>
-      <c r="G280" t="s">
+      <c r="F280" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H280" s="1"/>
+      <c r="H280" s="2"/>
+    </row>
+    <row r="281" customHeight="1" spans="3:7">
+      <c r="C281" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="3:7">
+      <c r="C282" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="3:7">
+      <c r="C283" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="3:7">
+      <c r="C284" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="3:7">
+      <c r="C285" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="419">
   <si>
     <t>_id</t>
   </si>
@@ -1309,12 +1322,36 @@
   </si>
   <si>
     <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>85,85,85</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>85,85</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1489,12 +1526,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1954,9 +1991,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2281,5068 +2317,4928 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:I285"/>
+  <dimension ref="C3:I290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:9">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="3:9">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="3:9">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="3:7">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:7">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:7">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:7">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:7">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:7">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:7">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:7">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:7">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:7">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:7">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:7">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:7">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:7">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:7">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:7">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:7">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:7">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:7">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:7">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:7">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:7">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:7">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:7">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:7">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:7">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:7">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:7">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:7">
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:7">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:7">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:7">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:7">
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:7">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:7">
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:7">
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:7">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:7">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:7">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:7">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:7">
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:7">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:7">
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="F48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:7">
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:7">
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:7">
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:7">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="F52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:7">
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:7">
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:7">
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:7">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:7">
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:7">
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:7">
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:7">
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:7">
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:7">
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="F62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:7">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="F63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:7">
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:7">
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:7">
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:7">
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="F67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="3:7">
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="F68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:7">
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:7">
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="F70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:7">
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:7">
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="F72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:7">
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:7">
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="F74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:7">
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="F75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:7">
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:7">
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="F77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:7">
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="F78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:7">
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="F79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:7">
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="F80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:7">
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:7">
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="F82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:7">
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="F83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:7">
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:7">
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="F85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:7">
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:7">
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="F87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:7">
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="F88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:7">
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="F89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:7">
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="F90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:7">
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:7">
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:7">
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="F93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:7">
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="F94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:7">
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="F95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:7">
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="3:7">
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="3:7">
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="F98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="3:7">
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:7">
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="F100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:7">
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:7">
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:7">
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="F103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="3:7">
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:7">
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="F105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="3:7">
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="3:7">
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:7">
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="F108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:7">
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="F109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="3:7">
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="F110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="3:7">
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="3:7">
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="F112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:7">
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="F113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:7">
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="F114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="3:7">
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="F115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:7">
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:7">
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="F117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="3:7">
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:7">
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="F119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:7">
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="F120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="3:7">
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="3:7">
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="F122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:7">
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="3:7">
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="3:7">
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="F125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="3:7">
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="3:7">
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="3:7">
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="F128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="3:7">
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="3:7">
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="F130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:7">
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="3:7">
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="3:7">
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="F133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="3:7">
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="F134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="3:7">
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="F135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="3:7">
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="3:7">
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="3:7">
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="3:7">
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="3:7">
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="3:7">
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="3:7">
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="3:7">
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="F143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:7">
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="F144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="3:7">
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="2" t="s">
+      <c r="F145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:7">
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="3:7">
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="F147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:7">
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="3:7">
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="F149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="3:7">
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="3:7">
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="3:7">
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="F152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="3:7">
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="F153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="3:7">
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="F154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="3:7">
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="F155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="3:7">
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="3:7">
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="F157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="3:7">
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="3:7">
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="3:7">
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="F160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="3:7">
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="3:7">
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="3:7">
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="3:7">
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="F164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="3:7">
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="F165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="3:7">
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F166" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="3:7">
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="F167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="3:7">
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="F168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="3:7">
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="F169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="3:7">
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="F170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="3:7">
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F171" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="3:7">
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" s="2" t="s">
+      <c r="F172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="3:7">
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" s="2" t="s">
+      <c r="F173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="3:7">
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="F174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="3:7">
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="2" t="s">
+      <c r="F175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="3:7">
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="3:7">
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" s="2" t="s">
+      <c r="F177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="3:7">
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="F178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="3:7">
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" s="2" t="s">
+      <c r="F179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="3:7">
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="F180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="3:7">
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F181" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="3:7">
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" s="2" t="s">
+      <c r="F182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="3:7">
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" s="2" t="s">
+      <c r="F183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="3:7">
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="F184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="3:7">
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" s="2" t="s">
+      <c r="F185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="3:7">
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F186" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="G186" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="3:7">
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="F187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="3:7">
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" s="2" t="s">
+      <c r="F188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="3:7">
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" s="2" t="s">
+      <c r="F189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="3:7">
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" s="2" t="s">
+      <c r="F190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="3:7">
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F191" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="G191" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="3:7">
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="F192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="3:7">
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" s="2" t="s">
+      <c r="F193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="3:7">
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" s="2" t="s">
+      <c r="F194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="3:7">
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" s="2" t="s">
+      <c r="F195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="3:7">
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="F196" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="G196" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="3:7">
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" s="2" t="s">
+      <c r="F197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="3:7">
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" s="2" t="s">
+      <c r="F198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="3:7">
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" s="2" t="s">
+      <c r="F199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="3:7">
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="F200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="3:7">
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="F201" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G201" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="3:7">
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" s="2" t="s">
+      <c r="F202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="3:7">
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" s="2" t="s">
+      <c r="F203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="3:7">
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G204" s="2" t="s">
+      <c r="F204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="3:7">
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" s="2" t="s">
+      <c r="F205" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="206" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2" t="s">
+    <row r="206" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C206" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="F206" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="G206" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H206" s="2"/>
-    </row>
-    <row r="207" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2" t="s">
+    </row>
+    <row r="207" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C207" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G207" s="2" t="s">
+      <c r="F207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H207" s="2"/>
-    </row>
-    <row r="208" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2" t="s">
+    </row>
+    <row r="208" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C208" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H208" s="2"/>
-    </row>
-    <row r="209" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2" t="s">
+    </row>
+    <row r="209" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C209" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="2" t="s">
+      <c r="F209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H209" s="2"/>
-    </row>
-    <row r="210" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2" t="s">
+    </row>
+    <row r="210" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C210" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" s="2" t="s">
+      <c r="F210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H210" s="2"/>
-    </row>
-    <row r="211" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2" t="s">
+    </row>
+    <row r="211" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C211" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="F211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="G211" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H211" s="2"/>
-    </row>
-    <row r="212" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2" t="s">
+    </row>
+    <row r="212" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C212" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" s="2" t="s">
+      <c r="F212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H212" s="2"/>
-    </row>
-    <row r="213" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2" t="s">
+    </row>
+    <row r="213" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C213" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" s="2" t="s">
+      <c r="F213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H213" s="2"/>
-    </row>
-    <row r="214" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2" t="s">
+    </row>
+    <row r="214" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C214" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" s="2" t="s">
+      <c r="F214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H214" s="2"/>
-    </row>
-    <row r="215" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2" t="s">
+    </row>
+    <row r="215" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C215" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="F215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H215" s="2"/>
-    </row>
-    <row r="216" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2" t="s">
+    </row>
+    <row r="216" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C216" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="F216" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G216" s="2" t="s">
+      <c r="G216" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H216" s="2"/>
-    </row>
-    <row r="217" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2" t="s">
+    </row>
+    <row r="217" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C217" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G217" s="2" t="s">
+      <c r="F217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H217" s="2"/>
-    </row>
-    <row r="218" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2" t="s">
+    </row>
+    <row r="218" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C218" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F218" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" s="2" t="s">
+      <c r="F218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H218" s="2"/>
-    </row>
-    <row r="219" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2" t="s">
+    </row>
+    <row r="219" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C219" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" s="2" t="s">
+      <c r="F219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H219" s="2"/>
-    </row>
-    <row r="220" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2" t="s">
+    </row>
+    <row r="220" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C220" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G220" s="2" t="s">
+      <c r="F220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H220" s="2"/>
-    </row>
-    <row r="221" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2" t="s">
+    </row>
+    <row r="221" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C221" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="F221" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="G221" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H221" s="2"/>
-    </row>
-    <row r="222" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2" t="s">
+    </row>
+    <row r="222" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C222" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G222" s="2" t="s">
+      <c r="F222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H222" s="2"/>
-    </row>
-    <row r="223" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2" t="s">
+    </row>
+    <row r="223" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C223" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G223" s="2" t="s">
+      <c r="F223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H223" s="2"/>
-    </row>
-    <row r="224" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2" t="s">
+    </row>
+    <row r="224" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C224" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" s="2" t="s">
+      <c r="F224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H224" s="2"/>
-    </row>
-    <row r="225" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2" t="s">
+    </row>
+    <row r="225" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C225" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G225" s="2" t="s">
+      <c r="F225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H225" s="2"/>
-    </row>
-    <row r="226" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2" t="s">
+    </row>
+    <row r="226" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C226" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="F226" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G226" s="2" t="s">
+      <c r="G226" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H226" s="2"/>
-    </row>
-    <row r="227" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2" t="s">
+    </row>
+    <row r="227" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C227" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="F227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H227" s="2"/>
-    </row>
-    <row r="228" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2" t="s">
+    </row>
+    <row r="228" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C228" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" s="2" t="s">
+      <c r="F228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H228" s="2"/>
-    </row>
-    <row r="229" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2" t="s">
+    </row>
+    <row r="229" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C229" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G229" s="2" t="s">
+      <c r="F229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H229" s="2"/>
-    </row>
-    <row r="230" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2" t="s">
+    </row>
+    <row r="230" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C230" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G230" s="2" t="s">
+      <c r="F230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H230" s="2"/>
-    </row>
-    <row r="231" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2" t="s">
+    </row>
+    <row r="231" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C231" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F231" s="2" t="s">
+      <c r="F231" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="G231" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H231" s="2"/>
-    </row>
-    <row r="232" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2" t="s">
+    </row>
+    <row r="232" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C232" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G232" s="2" t="s">
+      <c r="F232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H232" s="2"/>
-    </row>
-    <row r="233" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2" t="s">
+    </row>
+    <row r="233" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C233" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F233" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" s="2" t="s">
+      <c r="F233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H233" s="2"/>
-    </row>
-    <row r="234" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2" t="s">
+    </row>
+    <row r="234" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C234" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F234" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" s="2" t="s">
+      <c r="F234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H234" s="2"/>
-    </row>
-    <row r="235" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2" t="s">
+    </row>
+    <row r="235" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C235" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" s="2" t="s">
+      <c r="F235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H235" s="2"/>
-    </row>
-    <row r="236" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2" t="s">
+    </row>
+    <row r="236" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C236" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E236" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F236" s="2" t="s">
+      <c r="F236" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G236" s="2" t="s">
+      <c r="G236" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H236" s="2"/>
-    </row>
-    <row r="237" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2" t="s">
+    </row>
+    <row r="237" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C237" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" s="2" t="s">
+      <c r="F237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H237" s="2"/>
-    </row>
-    <row r="238" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2" t="s">
+    </row>
+    <row r="238" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C238" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F238" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" s="2" t="s">
+      <c r="F238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H238" s="2"/>
-    </row>
-    <row r="239" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2" t="s">
+    </row>
+    <row r="239" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C239" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G239" s="2" t="s">
+      <c r="F239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H239" s="2"/>
-    </row>
-    <row r="240" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2" t="s">
+    </row>
+    <row r="240" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C240" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F240" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G240" s="2" t="s">
+      <c r="F240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H240" s="2"/>
-    </row>
-    <row r="241" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2" t="s">
+    </row>
+    <row r="241" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C241" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="F241" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G241" s="2" t="s">
+      <c r="G241" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H241" s="2"/>
-    </row>
-    <row r="242" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2" t="s">
+    </row>
+    <row r="242" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C242" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G242" s="2" t="s">
+      <c r="F242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H242" s="2"/>
-    </row>
-    <row r="243" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2" t="s">
+    </row>
+    <row r="243" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C243" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E243" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G243" s="2" t="s">
+      <c r="F243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H243" s="2"/>
-    </row>
-    <row r="244" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2" t="s">
+    </row>
+    <row r="244" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C244" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G244" s="2" t="s">
+      <c r="F244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H244" s="2"/>
-    </row>
-    <row r="245" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2" t="s">
+    </row>
+    <row r="245" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C245" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E245" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F245" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G245" s="2" t="s">
+      <c r="F245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H245" s="2"/>
-    </row>
-    <row r="246" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2" t="s">
+    </row>
+    <row r="246" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C246" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F246" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G246" s="2" t="s">
+      <c r="G246" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H246" s="2"/>
-    </row>
-    <row r="247" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2" t="s">
+    </row>
+    <row r="247" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C247" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G247" s="2" t="s">
+      <c r="F247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H247" s="2"/>
-    </row>
-    <row r="248" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2" t="s">
+    </row>
+    <row r="248" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C248" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E248" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F248" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G248" s="2" t="s">
+      <c r="F248" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H248" s="2"/>
-    </row>
-    <row r="249" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2" t="s">
+    </row>
+    <row r="249" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C249" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E249" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G249" s="2" t="s">
+      <c r="F249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H249" s="2"/>
-    </row>
-    <row r="250" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2" t="s">
+    </row>
+    <row r="250" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C250" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="E250" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F250" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G250" s="2" t="s">
+      <c r="F250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H250" s="2"/>
-    </row>
-    <row r="251" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2" t="s">
+    </row>
+    <row r="251" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C251" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E251" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="F251" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G251" s="2" t="s">
+      <c r="G251" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H251" s="2"/>
-    </row>
-    <row r="252" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2" t="s">
+    </row>
+    <row r="252" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C252" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="E252" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F252" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G252" s="2" t="s">
+      <c r="F252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H252" s="2"/>
-    </row>
-    <row r="253" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2" t="s">
+    </row>
+    <row r="253" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C253" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E253" s="2" t="s">
+      <c r="E253" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F253" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G253" s="2" t="s">
+      <c r="F253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H253" s="2"/>
-    </row>
-    <row r="254" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2" t="s">
+    </row>
+    <row r="254" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C254" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F254" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G254" s="2" t="s">
+      <c r="F254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H254" s="2"/>
-    </row>
-    <row r="255" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2" t="s">
+    </row>
+    <row r="255" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C255" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="E255" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G255" s="2" t="s">
+      <c r="F255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H255" s="2"/>
-    </row>
-    <row r="256" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="4" t="s">
+    </row>
+    <row r="256" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C256" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D256" s="4" t="s">
+      <c r="D256" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F256" s="2" t="s">
+      <c r="F256" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G256" s="2" t="s">
+      <c r="G256" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H256" s="2"/>
-    </row>
-    <row r="257" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="4" t="s">
+    </row>
+    <row r="257" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C257" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D257" s="4" t="s">
+      <c r="D257" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E257" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G257" s="2" t="s">
+      <c r="F257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H257" s="2"/>
-    </row>
-    <row r="258" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="4" t="s">
+    </row>
+    <row r="258" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C258" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D258" s="4" t="s">
+      <c r="D258" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E258" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F258" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G258" s="2" t="s">
+      <c r="F258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H258" s="2"/>
-    </row>
-    <row r="259" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="4" t="s">
+    </row>
+    <row r="259" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C259" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D259" s="4" t="s">
+      <c r="D259" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E259" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F259" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G259" s="2" t="s">
+      <c r="F259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H259" s="2"/>
-    </row>
-    <row r="260" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="4" t="s">
+    </row>
+    <row r="260" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C260" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D260" s="4" t="s">
+      <c r="D260" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="E260" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G260" s="2" t="s">
+      <c r="F260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G260" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H260" s="2"/>
-    </row>
-    <row r="261" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="4" t="s">
+    </row>
+    <row r="261" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C261" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D261" s="4" t="s">
+      <c r="D261" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E261" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F261" s="2" t="s">
+      <c r="F261" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="G261" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H261" s="2"/>
-    </row>
-    <row r="262" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="4" t="s">
+    </row>
+    <row r="262" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C262" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D262" s="4" t="s">
+      <c r="D262" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F262" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G262" s="2" t="s">
+      <c r="F262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H262" s="2"/>
-    </row>
-    <row r="263" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="4" t="s">
+    </row>
+    <row r="263" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C263" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D263" s="4" t="s">
+      <c r="D263" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F263" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G263" s="2" t="s">
+      <c r="F263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H263" s="2"/>
-    </row>
-    <row r="264" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="4" t="s">
+    </row>
+    <row r="264" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C264" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D264" s="4" t="s">
+      <c r="D264" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F264" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G264" s="2" t="s">
+      <c r="F264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G264" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H264" s="2"/>
-    </row>
-    <row r="265" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="4" t="s">
+    </row>
+    <row r="265" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C265" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D265" s="4" t="s">
+      <c r="D265" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F265" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" s="2" t="s">
+      <c r="F265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H265" s="2"/>
-    </row>
-    <row r="266" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="4" t="s">
+    </row>
+    <row r="266" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C266" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D266" s="4" t="s">
+      <c r="D266" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E266" s="2" t="s">
+      <c r="E266" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F266" s="2" t="s">
+      <c r="F266" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G266" s="2" t="s">
+      <c r="G266" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H266" s="2"/>
-    </row>
-    <row r="267" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="4" t="s">
+    </row>
+    <row r="267" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C267" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D267" s="4" t="s">
+      <c r="D267" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E267" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F267" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G267" s="2" t="s">
+      <c r="F267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H267" s="2"/>
-    </row>
-    <row r="268" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="4" t="s">
+    </row>
+    <row r="268" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C268" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D268" s="4" t="s">
+      <c r="D268" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E268" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F268" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G268" s="2" t="s">
+      <c r="F268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H268" s="2"/>
-    </row>
-    <row r="269" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="4" t="s">
+    </row>
+    <row r="269" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C269" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D269" s="4" t="s">
+      <c r="D269" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E269" s="2" t="s">
+      <c r="E269" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F269" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G269" s="2" t="s">
+      <c r="F269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G269" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H269" s="2"/>
-    </row>
-    <row r="270" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="4" t="s">
+    </row>
+    <row r="270" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C270" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D270" s="4" t="s">
+      <c r="D270" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F270" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G270" s="2" t="s">
+      <c r="F270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G270" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H270" s="2"/>
-    </row>
-    <row r="271" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="4" t="s">
+    </row>
+    <row r="271" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C271" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D271" s="4" t="s">
+      <c r="D271" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="E271" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="F271" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G271" s="2" t="s">
+      <c r="G271" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H271" s="2"/>
-    </row>
-    <row r="272" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="4" t="s">
+    </row>
+    <row r="272" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C272" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D272" s="4" t="s">
+      <c r="D272" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E272" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F272" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G272" s="2" t="s">
+      <c r="F272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H272" s="2"/>
-    </row>
-    <row r="273" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="4" t="s">
+    </row>
+    <row r="273" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C273" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D273" s="4" t="s">
+      <c r="D273" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F273" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G273" s="2" t="s">
+      <c r="F273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H273" s="2"/>
-    </row>
-    <row r="274" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="4" t="s">
+    </row>
+    <row r="274" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C274" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D274" s="4" t="s">
+      <c r="D274" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E274" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F274" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G274" s="2" t="s">
+      <c r="F274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G274" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H274" s="2"/>
-    </row>
-    <row r="275" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="4" t="s">
+    </row>
+    <row r="275" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C275" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D275" s="4" t="s">
+      <c r="D275" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E275" s="2" t="s">
+      <c r="E275" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F275" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" s="2" t="s">
+      <c r="F275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G275" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H275" s="2"/>
-    </row>
-    <row r="276" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="4" t="s">
+    </row>
+    <row r="276" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C276" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D276" s="4" t="s">
+      <c r="D276" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E276" s="2" t="s">
+      <c r="E276" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F276" s="2" t="s">
+      <c r="F276" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G276" s="2" t="s">
+      <c r="G276" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H276" s="2"/>
-    </row>
-    <row r="277" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="4" t="s">
+    </row>
+    <row r="277" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C277" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="D277" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E277" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F277" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G277" s="2" t="s">
+      <c r="F277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H277" s="2"/>
-    </row>
-    <row r="278" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="4" t="s">
+    </row>
+    <row r="278" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C278" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D278" s="4" t="s">
+      <c r="D278" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E278" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F278" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G278" s="2" t="s">
+      <c r="F278" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H278" s="2"/>
-    </row>
-    <row r="279" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="4" t="s">
+    </row>
+    <row r="279" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C279" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D279" s="4" t="s">
+      <c r="D279" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E279" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F279" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G279" s="2" t="s">
+      <c r="F279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H279" s="2"/>
-    </row>
-    <row r="280" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="4" t="s">
+    </row>
+    <row r="280" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C280" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D280" s="4" t="s">
+      <c r="D280" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E280" s="2" t="s">
+      <c r="E280" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F280" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G280" s="2" t="s">
+      <c r="F280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G280" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H280" s="2"/>
     </row>
     <row r="281" customHeight="1" spans="3:7">
-      <c r="C281" s="4" t="s">
+      <c r="C281" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D281" s="4" t="s">
+      <c r="D281" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E281" s="2" t="s">
+      <c r="E281" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F281" s="2" t="s">
+      <c r="F281" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G281" s="2" t="s">
+      <c r="G281" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="282" customHeight="1" spans="3:7">
-      <c r="C282" s="4" t="s">
+      <c r="C282" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D282" s="4" t="s">
+      <c r="D282" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E282" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F282" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G282" s="2" t="s">
+      <c r="F282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="3:7">
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D283" s="4" t="s">
+      <c r="D283" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="E283" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F283" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G283" s="2" t="s">
+      <c r="F283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="3:7">
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D284" s="4" t="s">
+      <c r="D284" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E284" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F284" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G284" s="2" t="s">
+      <c r="F284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="3:7">
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D285" s="4" t="s">
+      <c r="D285" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E285" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F285" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G285" s="2" t="s">
+      <c r="F285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="3:7">
+      <c r="C286" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="3:7">
+      <c r="C287" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="3:7">
+      <c r="C288" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="3:7">
+      <c r="C289" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="3:7">
+      <c r="C290" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="427">
   <si>
     <t>_id</t>
   </si>
@@ -1346,6 +1346,30 @@
   </si>
   <si>
     <t>564</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>100,100,100</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>100,100</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
   </si>
 </sst>
 </file>
@@ -1526,12 +1550,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1991,13 +2015,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2317,10 +2343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I290"/>
+  <dimension ref="C3:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="C293" sqref="C293"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="G299" sqref="G299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6647,10 +6673,10 @@
       </c>
     </row>
     <row r="256" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E256" s="1" t="s">
@@ -6664,10 +6690,10 @@
       </c>
     </row>
     <row r="257" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -6681,10 +6707,10 @@
       </c>
     </row>
     <row r="258" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E258" s="1" t="s">
@@ -6698,10 +6724,10 @@
       </c>
     </row>
     <row r="259" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E259" s="1" t="s">
@@ -6715,10 +6741,10 @@
       </c>
     </row>
     <row r="260" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -6732,10 +6758,10 @@
       </c>
     </row>
     <row r="261" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E261" s="1" t="s">
@@ -6749,10 +6775,10 @@
       </c>
     </row>
     <row r="262" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E262" s="1" t="s">
@@ -6766,10 +6792,10 @@
       </c>
     </row>
     <row r="263" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E263" s="1" t="s">
@@ -6783,10 +6809,10 @@
       </c>
     </row>
     <row r="264" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E264" s="1" t="s">
@@ -6800,10 +6826,10 @@
       </c>
     </row>
     <row r="265" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E265" s="1" t="s">
@@ -6817,10 +6843,10 @@
       </c>
     </row>
     <row r="266" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E266" s="1" t="s">
@@ -6834,10 +6860,10 @@
       </c>
     </row>
     <row r="267" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E267" s="1" t="s">
@@ -6851,10 +6877,10 @@
       </c>
     </row>
     <row r="268" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -6868,10 +6894,10 @@
       </c>
     </row>
     <row r="269" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E269" s="1" t="s">
@@ -6885,10 +6911,10 @@
       </c>
     </row>
     <row r="270" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E270" s="1" t="s">
@@ -6902,10 +6928,10 @@
       </c>
     </row>
     <row r="271" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -6919,10 +6945,10 @@
       </c>
     </row>
     <row r="272" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -6936,10 +6962,10 @@
       </c>
     </row>
     <row r="273" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -6953,10 +6979,10 @@
       </c>
     </row>
     <row r="274" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E274" s="1" t="s">
@@ -6970,10 +6996,10 @@
       </c>
     </row>
     <row r="275" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -6987,10 +7013,10 @@
       </c>
     </row>
     <row r="276" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="4" t="s">
         <v>396</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -7004,10 +7030,10 @@
       </c>
     </row>
     <row r="277" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="4" t="s">
         <v>396</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -7021,10 +7047,10 @@
       </c>
     </row>
     <row r="278" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="4" t="s">
         <v>396</v>
       </c>
       <c r="E278" s="1" t="s">
@@ -7038,10 +7064,10 @@
       </c>
     </row>
     <row r="279" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="4" t="s">
         <v>396</v>
       </c>
       <c r="E279" s="1" t="s">
@@ -7055,10 +7081,10 @@
       </c>
     </row>
     <row r="280" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="4" t="s">
         <v>396</v>
       </c>
       <c r="E280" s="1" t="s">
@@ -7072,10 +7098,10 @@
       </c>
     </row>
     <row r="281" customHeight="1" spans="3:7">
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -7089,10 +7115,10 @@
       </c>
     </row>
     <row r="282" customHeight="1" spans="3:7">
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -7106,10 +7132,10 @@
       </c>
     </row>
     <row r="283" customHeight="1" spans="3:7">
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E283" s="1" t="s">
@@ -7123,10 +7149,10 @@
       </c>
     </row>
     <row r="284" customHeight="1" spans="3:7">
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -7140,10 +7166,10 @@
       </c>
     </row>
     <row r="285" customHeight="1" spans="3:7">
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -7157,10 +7183,10 @@
       </c>
     </row>
     <row r="286" customHeight="1" spans="3:7">
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -7174,10 +7200,10 @@
       </c>
     </row>
     <row r="287" customHeight="1" spans="3:7">
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E287" s="1" t="s">
@@ -7191,10 +7217,10 @@
       </c>
     </row>
     <row r="288" customHeight="1" spans="3:7">
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -7208,10 +7234,10 @@
       </c>
     </row>
     <row r="289" customHeight="1" spans="3:7">
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E289" s="1" t="s">
@@ -7225,10 +7251,10 @@
       </c>
     </row>
     <row r="290" customHeight="1" spans="3:7">
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E290" s="1" t="s">
@@ -7239,6 +7265,91 @@
       </c>
       <c r="G290" s="1" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="3:7">
+      <c r="C291" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="3:7">
+      <c r="C292" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="3:7">
+      <c r="C293" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="3:7">
+      <c r="C294" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="295" customHeight="1" spans="3:7">
+      <c r="C295" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="475">
   <si>
     <t>_id</t>
   </si>
@@ -1370,6 +1370,150 @@
   </si>
   <si>
     <t>705</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>120,120,120</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>120,120</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>145,145,145</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>145,145</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>175,175,175</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>175,175</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>210,210,210</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>210,210</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>250,250,250</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>250,250</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>295,295,295</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>295,295</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
   </si>
 </sst>
 </file>
@@ -2343,10 +2487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I295"/>
+  <dimension ref="C3:I325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="G299" sqref="G299"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322:G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7352,6 +7496,516 @@
         <v>423</v>
       </c>
     </row>
+    <row r="296" customHeight="1" spans="3:7">
+      <c r="C296" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="3:7">
+      <c r="C297" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="298" customHeight="1" spans="3:7">
+      <c r="C298" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="3:7">
+      <c r="C299" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="3:7">
+      <c r="C300" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="3:7">
+      <c r="C301" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="3:7">
+      <c r="C302" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="3:7">
+      <c r="C303" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="3:7">
+      <c r="C304" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="305" customHeight="1" spans="3:7">
+      <c r="C305" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="3:7">
+      <c r="C306" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="3:7">
+      <c r="C307" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="3:7">
+      <c r="C308" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="3:7">
+      <c r="C309" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="3:7">
+      <c r="C310" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="3:7">
+      <c r="C311" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="3:7">
+      <c r="C312" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="3:7">
+      <c r="C313" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="3:7">
+      <c r="C314" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="3:7">
+      <c r="C315" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="3:7">
+      <c r="C316" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="3:7">
+      <c r="C317" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="3:7">
+      <c r="C318" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="3:7">
+      <c r="C319" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="3:7">
+      <c r="C320" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="3:7">
+      <c r="C321" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="3:7">
+      <c r="C322" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="3:7">
+      <c r="C323" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="3:7">
+      <c r="C324" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="3:7">
+      <c r="C325" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5:I5 C3:C5" errorStyle="warning">

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="478">
   <si>
     <t>_id</t>
   </si>
@@ -1514,6 +1514,15 @@
   </si>
   <si>
     <t>1005</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>345,345,345</t>
+  </si>
+  <si>
+    <t>345,345</t>
   </si>
 </sst>
 </file>
@@ -2487,10 +2496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I325"/>
+  <dimension ref="C3:I330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="G322" sqref="G322:G325"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="I316" sqref="I316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -8006,9 +8015,94 @@
         <v>471</v>
       </c>
     </row>
+    <row r="326" customHeight="1" spans="3:7">
+      <c r="C326" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="3:7">
+      <c r="C327" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="3:7">
+      <c r="C328" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="3:7">
+      <c r="C329" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="3:7">
+      <c r="C330" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5:I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:I3 E4:I4 E5:I5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EquipGroupConfig.xlsx
+++ b/Excel/EquipGroupConfig.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="483">
   <si>
     <t>_id</t>
   </si>
@@ -1516,13 +1516,28 @@
     <t>1005</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>1050</t>
   </si>
   <si>
     <t>345,345,345</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
     <t>345,345</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2514,7 @@
   <dimension ref="C3:I330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="I316" sqref="I316"/>
+      <selection activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -8017,10 +8032,10 @@
     </row>
     <row r="326" customHeight="1" spans="3:7">
       <c r="C326" s="4" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>11</v>
@@ -8029,15 +8044,15 @@
         <v>12</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="327" customHeight="1" spans="3:7">
       <c r="C327" s="4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>15</v>
@@ -8046,15 +8061,15 @@
         <v>16</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="3:7">
       <c r="C328" s="4" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>19</v>
@@ -8063,15 +8078,15 @@
         <v>16</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="3:7">
       <c r="C329" s="4" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>21</v>
@@ -8080,15 +8095,15 @@
         <v>22</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" customHeight="1" spans="3:7">
       <c r="C330" s="4" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>24</v>
@@ -8097,12 +8112,12 @@
         <v>22</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:I3 E4:I4 E5:I5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:I5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
